--- a/exp2/case02/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case02/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,19 +6,20 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_pearson_7" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_21" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_pearson_25" r:id="rId5" sheetId="3"/>
-    <sheet name="moderate_pearson_26" r:id="rId6" sheetId="4"/>
-    <sheet name="moderate_spearman_43" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_pearson_35" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_70" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_pearson_88" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_88" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_104" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_spearman_108" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="64">
   <si>
-    <t>Correlation information for DiffScore - Level of Motivation in non-gamified.Master using the method: pearson</t>
+    <t>Correlation information for NroDesiredInteractions - Level of Motivation in ont-gamified.Apprentice using the method: pearson</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -27,7 +28,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffScore</t>
+    <t>NroDesiredInteractions</t>
   </si>
   <si>
     <t>Level of Motivation</t>
@@ -54,13 +55,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffSc-LvloM</t>
+    <t>NrDsI-LvloM</t>
   </si>
   <si>
-    <t>Data source for DiffScore - Level of Motivation in non-gamified.Master</t>
+    <t>Data source for NroDesiredInteractions - Level of Motivation in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for DiffScore - Level of Motivation in non-gamified.Master</t>
+    <t>Data full source for NroDesiredInteractions - Level of Motivation in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -81,54 +82,6 @@
     <t>PlayerRole</t>
   </si>
   <si>
-    <t>non-gamified</t>
-  </si>
-  <si>
-    <t>Grupo Team 6</t>
-  </si>
-  <si>
-    <t>Grupo Team 7</t>
-  </si>
-  <si>
-    <t>Grupo Team 11</t>
-  </si>
-  <si>
-    <t>Grupo Team 10</t>
-  </si>
-  <si>
-    <t>Grupo Team 5</t>
-  </si>
-  <si>
-    <t>Grupo Team 9</t>
-  </si>
-  <si>
-    <t>Grupo Team 8</t>
-  </si>
-  <si>
-    <t>Grupo Team 4</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Correlation information for DiffScore - Attention in ont-gamified using the method: spearman</t>
-  </si>
-  <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>DffSc-Attnt</t>
-  </si>
-  <si>
-    <t>Data source for DiffScore - Attention in ont-gamified</t>
-  </si>
-  <si>
-    <t>Data full source for DiffScore - Attention in ont-gamified</t>
-  </si>
-  <si>
     <t>ont-gamified</t>
   </si>
   <si>
@@ -138,22 +91,22 @@
     <t>Grupo Razorg</t>
   </si>
   <si>
+    <t>Grupo Yeka</t>
+  </si>
+  <si>
     <t>Grupo Paldira</t>
   </si>
   <si>
-    <t>Grupo Yeka</t>
+    <t>Grupo Losvakai</t>
   </si>
   <si>
-    <t>Grupo Losvakai</t>
+    <t>Grupo Ellaru</t>
   </si>
   <si>
     <t>Grupo Koil</t>
   </si>
   <si>
     <t>Grupo Belos</t>
-  </si>
-  <si>
-    <t>Grupo Ellaru</t>
   </si>
   <si>
     <t>Apprentice</t>
@@ -165,37 +118,97 @@
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Correlation information for DiffScore - Attention in non-gamified.Master using the method: pearson</t>
+    <t>Correlation information for NroDesiredInteractions - Attention in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for DiffScore - Attention in non-gamified.Master</t>
+    <t>Attention</t>
   </si>
   <si>
-    <t>Data full source for DiffScore - Attention in non-gamified.Master</t>
+    <t>NrDsI-Attnt</t>
   </si>
   <si>
-    <t>Correlation information for DiffScore - Attention in ont-gamified.Apprentice using the method: pearson</t>
+    <t>Data source for NroDesiredInteractions - Attention in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data source for DiffScore - Attention in ont-gamified.Apprentice</t>
+    <t>Data full source for NroDesiredInteractions - Attention in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffScore - Attention in ont-gamified.Apprentice</t>
+    <t>non-gamified</t>
   </si>
   <si>
-    <t>Correlation information for DiffScore - Satisfaction in non-gamified.Master using the method: spearman</t>
+    <t>Grupo Team 2</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: pearson</t>
+  </si>
+  <si>
+    <t>NroTotalInteractions</t>
   </si>
   <si>
     <t>Satisfaction</t>
   </si>
   <si>
-    <t>DffSc-Stsfc</t>
+    <t>NrTtI-Stsfc</t>
   </si>
   <si>
-    <t>Data source for DiffScore - Satisfaction in non-gamified.Master</t>
+    <t>Data source for NroTotalInteractions - Satisfaction in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for DiffScore - Satisfaction in non-gamified.Master</t>
+    <t>Data full source for NroTotalInteractions - Satisfaction in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 5</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Correlation information for NroDesiredInteractions - Satisfaction in Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>NrDsI-Stsfc</t>
+  </si>
+  <si>
+    <t>Data source for NroDesiredInteractions - Satisfaction in Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroDesiredInteractions - Satisfaction in Master</t>
+  </si>
+  <si>
+    <t>Correlation information for NroDesiredInteractions - Satisfaction in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for NroDesiredInteractions - Satisfaction in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroDesiredInteractions - Satisfaction in ont-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -203,13 +216,486 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="371">
+  <fonts count="445">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2619,7 +3105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="701">
+  <cellXfs count="841">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3441,6 +3927,170 @@
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -3501,7 +4151,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.5144523260057345</v>
+        <v>0.5439426570340364</v>
       </c>
     </row>
     <row r="7">
@@ -3509,7 +4159,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.5144523260057345</v>
+        <v>0.5439426570340364</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -3547,7 +4197,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>1.4695251327895318</v>
+        <v>2.2455277783246688</v>
       </c>
     </row>
     <row r="13">
@@ -3555,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>1.4695251327895318</v>
+        <v>2.2455277783246688</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -3593,7 +4243,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.1920831876622282</v>
+        <v>0.0443532241354454</v>
       </c>
     </row>
     <row r="19">
@@ -3601,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.1920831876622282</v>
+        <v>0.0443532241354454</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -3642,16 +4292,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.29839491365340987</v>
+        <v>0.01878443230738118</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.5144523260057345</v>
+        <v>0.5439426570340364</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.8947572830732664</v>
+        <v>0.833864765388459</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.1920831876622282</v>
+        <v>0.0443532241354454</v>
       </c>
     </row>
     <row r="25">
@@ -3679,277 +4329,169 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.7499999999999991</v>
+        <v>0.0</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>5.909090909090909</v>
+        <v>0.04746596278400641</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>1.151709401709402</v>
+        <v>0.0</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>5.818181818181818</v>
+        <v>-0.04899791807321898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>0.8985042735042734</v>
+        <v>0.0</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>4.181818181818182</v>
+        <v>1.7085564913064826</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>1.31929181929182</v>
+        <v>0.0</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>5.0</v>
+        <v>-0.1432714652541453</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>1.0286935286935286</v>
+        <v>0.0</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>6.454545454545454</v>
+        <v>-0.5863850352781681</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>-0.2666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>4.181818181818182</v>
+        <v>-0.5007604435171952</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.2828601953601959</v>
+        <v>0.0</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>5.0</v>
+        <v>0.04746596278400641</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>0.41666666666666785</v>
+        <v>0.0</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>3.272727272727273</v>
+        <v>-0.6711884370789655</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="A37" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="B37" t="n" s="114">
+        <v>0.5651809586659317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="B38" t="n" s="114">
+        <v>-0.1432714652541453</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B39" t="n" s="114">
+        <v>1.5094390257013832</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="B40" t="n" s="114">
+        <v>0.45633937173202754</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="B41" t="n" s="114">
+        <v>0.04746596278400641</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="B42" t="n" s="114">
+        <v>0.2471129891271897</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="44">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="118">
+    <row r="45">
+      <c r="A45" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="132">
+    <row r="46">
+      <c r="A46" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B40" t="s" s="132">
+      <c r="B46" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C40" t="s" s="132">
+      <c r="C46" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D40" t="s" s="132">
+      <c r="D46" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E40" t="s" s="132">
+      <c r="E46" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F40" t="s" s="132">
+      <c r="F46" t="s" s="132">
         <v>20</v>
       </c>
-      <c r="G40" t="s" s="132">
+      <c r="G46" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="H40" t="s" s="132">
+      <c r="H46" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="133">
-        <v>10175.0</v>
-      </c>
-      <c r="B41" t="n" s="134">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C41" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G41" t="n" s="139">
-        <v>0.7499999999999991</v>
-      </c>
-      <c r="H41" t="n" s="140">
-        <v>5.909090909090909</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="133">
-        <v>10184.0</v>
-      </c>
-      <c r="B42" t="n" s="134">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C42" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n" s="139">
-        <v>1.151709401709402</v>
-      </c>
-      <c r="H42" t="n" s="140">
-        <v>5.818181818181818</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="133">
-        <v>10197.0</v>
-      </c>
-      <c r="B43" t="n" s="134">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C43" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n" s="139">
-        <v>0.8985042735042734</v>
-      </c>
-      <c r="H43" t="n" s="140">
-        <v>4.181818181818182</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="133">
-        <v>10201.0</v>
-      </c>
-      <c r="B44" t="n" s="134">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C44" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n" s="139">
-        <v>1.31929181929182</v>
-      </c>
-      <c r="H44" t="n" s="140">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="133">
-        <v>10204.0</v>
-      </c>
-      <c r="B45" t="n" s="134">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C45" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n" s="139">
-        <v>1.0286935286935286</v>
-      </c>
-      <c r="H45" t="n" s="140">
-        <v>6.454545454545454</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="133">
-        <v>10206.0</v>
-      </c>
-      <c r="B46" t="n" s="134">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C46" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="139">
-        <v>-0.2666666666666666</v>
-      </c>
-      <c r="H46" t="n" s="140">
-        <v>4.181818181818182</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="133">
-        <v>10213.0</v>
+        <v>10179.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>1.027704E7</v>
+        <v>1.0310759E7</v>
       </c>
       <c r="C47" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D47" t="s" s="136">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s" s="137">
         <v>30</v>
@@ -3958,24 +4500,24 @@
         <v>31</v>
       </c>
       <c r="G47" t="n" s="139">
-        <v>0.2828601953601959</v>
+        <v>0.0</v>
       </c>
       <c r="H47" t="n" s="140">
-        <v>5.0</v>
+        <v>0.04746596278400641</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10231.0</v>
+        <v>10187.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>1.0276911E7</v>
+        <v>9790781.0</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s" s="137">
         <v>30</v>
@@ -3984,10 +4526,322 @@
         <v>31</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>0.41666666666666785</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>3.272727272727273</v>
+        <v>-0.04899791807321898</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="133">
+        <v>10191.0</v>
+      </c>
+      <c r="B49" t="n" s="134">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C49" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G49" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n" s="140">
+        <v>1.7085564913064826</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="133">
+        <v>10202.0</v>
+      </c>
+      <c r="B50" t="n" s="134">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C50" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n" s="140">
+        <v>-0.1432714652541453</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="133">
+        <v>10210.0</v>
+      </c>
+      <c r="B51" t="n" s="134">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C51" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G51" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="n" s="140">
+        <v>-0.5863850352781681</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="133">
+        <v>10212.0</v>
+      </c>
+      <c r="B52" t="n" s="134">
+        <v>9065750.0</v>
+      </c>
+      <c r="C52" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G52" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H52" t="n" s="140">
+        <v>-0.5007604435171952</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="133">
+        <v>10214.0</v>
+      </c>
+      <c r="B53" t="n" s="134">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C53" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G53" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H53" t="n" s="140">
+        <v>0.04746596278400641</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="133">
+        <v>10219.0</v>
+      </c>
+      <c r="B54" t="n" s="134">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C54" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G54" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="140">
+        <v>-0.6711884370789655</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="133">
+        <v>10226.0</v>
+      </c>
+      <c r="B55" t="n" s="134">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C55" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G55" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="140">
+        <v>0.5651809586659317</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="133">
+        <v>10228.0</v>
+      </c>
+      <c r="B56" t="n" s="134">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C56" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G56" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="140">
+        <v>-0.1432714652541453</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="133">
+        <v>10230.0</v>
+      </c>
+      <c r="B57" t="n" s="134">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C57" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G57" t="n" s="139">
+        <v>2.0</v>
+      </c>
+      <c r="H57" t="n" s="140">
+        <v>1.5094390257013832</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="133">
+        <v>10233.0</v>
+      </c>
+      <c r="B58" t="n" s="134">
+        <v>9805320.0</v>
+      </c>
+      <c r="C58" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G58" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H58" t="n" s="140">
+        <v>0.45633937173202754</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="133">
+        <v>10237.0</v>
+      </c>
+      <c r="B59" t="n" s="134">
+        <v>1.0377688E7</v>
+      </c>
+      <c r="C59" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G59" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H59" t="n" s="140">
+        <v>0.04746596278400641</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="133">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="134">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C60" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="136">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s" s="138">
+        <v>32</v>
+      </c>
+      <c r="G60" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="n" s="140">
+        <v>0.2471129891271897</v>
       </c>
     </row>
   </sheetData>
@@ -4016,7 +4870,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -4040,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -4048,21 +4902,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="171">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.5959027002598253</v>
+        <v>-0.6708203932499369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.5959027002598253</v>
+        <v>-0.6708203932499369</v>
       </c>
       <c r="C7" t="n" s="172">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8">
@@ -4086,29 +4940,29 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="191">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="191">
+        <v>8.21912370089156E7</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-2.4610787864286836</v>
+        <v>-1.5666989036012806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-2.4610787864286836</v>
+        <v>-1.5666989036012806</v>
       </c>
       <c r="C13" t="n" s="192">
-        <v>2.22574921994989E8</v>
+        <v>8.21912370089156E7</v>
       </c>
     </row>
     <row r="14">
@@ -4132,7 +4986,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -4143,15 +4997,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.031618164352671174</v>
+        <v>0.2151699425695499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.031618164352671174</v>
+        <v>0.2151699425695499</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>0.0</v>
@@ -4189,19 +5043,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.8634035734787711</v>
+        <v>-0.9756536866594763</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.5959027002598253</v>
+        <v>-0.6708203932499369</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>-0.06687456775818144</v>
+        <v>0.5180498566717415</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.031618164352671174</v>
+        <v>0.2151699425695499</v>
       </c>
     </row>
     <row r="25">
@@ -4216,7 +5070,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4224,490 +5078,218 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>1.985042735042736</v>
+        <v>2.0</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>4.0</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>0.6388888888888875</v>
+        <v>3.0</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>4.333333333333333</v>
+        <v>-0.7105675856923684</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>-0.33638583638583697</v>
+        <v>2.0</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>4.5</v>
+        <v>0.7509889977780969</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>-1.2222222222222232</v>
+        <v>2.0</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>4.166666666666667</v>
+        <v>-0.9011646241670594</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>2.4257936507936506</v>
+        <v>0.0</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>4.0</v>
+        <v>1.4262566914250443</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="253">
-        <v>0.08333333333333304</v>
-      </c>
-      <c r="B34" t="n" s="254">
-        <v>4.0</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="253">
-        <v>2.5915140415140416</v>
-      </c>
-      <c r="B35" t="n" s="254">
-        <v>3.8333333333333335</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="253">
-        <v>0.3598901098901095</v>
-      </c>
-      <c r="B36" t="n" s="254">
-        <v>4.5</v>
+      <c r="A36" t="s" s="258">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="253">
-        <v>-0.5000000000000009</v>
-      </c>
-      <c r="B37" t="n" s="254">
-        <v>5.0</v>
+      <c r="A37" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s" s="272">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s" s="272">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="253">
-        <v>1.1839743589743588</v>
-      </c>
-      <c r="B38" t="n" s="254">
-        <v>4.833333333333333</v>
+      <c r="A38" t="n" s="273">
+        <v>10193.0</v>
+      </c>
+      <c r="B38" t="n" s="274">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C38" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G38" t="n" s="279">
+        <v>2.0</v>
+      </c>
+      <c r="H38" t="n" s="280">
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="253">
-        <v>1.7707264957264957</v>
-      </c>
-      <c r="B39" t="n" s="254">
-        <v>4.166666666666667</v>
+      <c r="A39" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B39" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C39" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s" s="276">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G39" t="n" s="279">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="n" s="280">
+        <v>-0.7105675856923684</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="253">
-        <v>1.2628205128205137</v>
-      </c>
-      <c r="B40" t="n" s="254">
-        <v>4.0</v>
+      <c r="A40" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B40" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C40" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s" s="276">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G40" t="n" s="279">
+        <v>2.0</v>
+      </c>
+      <c r="H40" t="n" s="280">
+        <v>0.7509889977780969</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="253">
-        <v>1.8056013431013436</v>
-      </c>
-      <c r="B41" t="n" s="254">
-        <v>4.333333333333333</v>
+      <c r="A41" t="n" s="273">
+        <v>10206.0</v>
+      </c>
+      <c r="B41" t="n" s="274">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C41" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s" s="277">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="278">
+        <v>45</v>
+      </c>
+      <c r="G41" t="n" s="279">
+        <v>2.0</v>
+      </c>
+      <c r="H41" t="n" s="280">
+        <v>-0.9011646241670594</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="258">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="272">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s" s="272">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s" s="272">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s" s="272">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s" s="272">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s" s="272">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s" s="272">
-        <v>3</v>
-      </c>
-      <c r="H45" t="s" s="272">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="273">
-        <v>10179.0</v>
-      </c>
-      <c r="B46" t="n" s="274">
-        <v>1.0310759E7</v>
-      </c>
-      <c r="C46" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D46" t="s" s="276">
+      <c r="A42" t="n" s="273">
+        <v>10213.0</v>
+      </c>
+      <c r="B42" t="n" s="274">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C42" t="s" s="275">
         <v>38</v>
       </c>
-      <c r="E46" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F46" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G46" t="n" s="279">
-        <v>1.985042735042736</v>
-      </c>
-      <c r="H46" t="n" s="280">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="273">
-        <v>10185.0</v>
-      </c>
-      <c r="B47" t="n" s="274">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C47" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D47" t="s" s="276">
-        <v>38</v>
-      </c>
-      <c r="E47" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G47" t="n" s="279">
-        <v>0.6388888888888875</v>
-      </c>
-      <c r="H47" t="n" s="280">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="273">
-        <v>10187.0</v>
-      </c>
-      <c r="B48" t="n" s="274">
-        <v>9790781.0</v>
-      </c>
-      <c r="C48" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D48" t="s" s="276">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G48" t="n" s="279">
-        <v>-0.33638583638583697</v>
-      </c>
-      <c r="H48" t="n" s="280">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="273">
-        <v>10188.0</v>
-      </c>
-      <c r="B49" t="n" s="274">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C49" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D49" t="s" s="276">
-        <v>40</v>
-      </c>
-      <c r="E49" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F49" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G49" t="n" s="279">
-        <v>-1.2222222222222232</v>
-      </c>
-      <c r="H49" t="n" s="280">
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="273">
-        <v>10202.0</v>
-      </c>
-      <c r="B50" t="n" s="274">
-        <v>1.0277036E7</v>
-      </c>
-      <c r="C50" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s" s="276">
-        <v>40</v>
-      </c>
-      <c r="E50" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F50" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G50" t="n" s="279">
-        <v>2.4257936507936506</v>
-      </c>
-      <c r="H50" t="n" s="280">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="273">
-        <v>10208.0</v>
-      </c>
-      <c r="B51" t="n" s="274">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C51" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s" s="276">
-        <v>41</v>
-      </c>
-      <c r="E51" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s" s="278">
-        <v>48</v>
-      </c>
-      <c r="G51" t="n" s="279">
-        <v>0.08333333333333304</v>
-      </c>
-      <c r="H51" t="n" s="280">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="273">
-        <v>10210.0</v>
-      </c>
-      <c r="B52" t="n" s="274">
-        <v>1.0277015E7</v>
-      </c>
-      <c r="C52" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D52" t="s" s="276">
-        <v>42</v>
-      </c>
-      <c r="E52" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F52" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G52" t="n" s="279">
-        <v>2.5915140415140416</v>
-      </c>
-      <c r="H52" t="n" s="280">
-        <v>3.8333333333333335</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="273">
-        <v>10214.0</v>
-      </c>
-      <c r="B53" t="n" s="274">
-        <v>1.0277022E7</v>
-      </c>
-      <c r="C53" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D53" t="s" s="276">
+      <c r="D42" t="s" s="276">
         <v>43</v>
       </c>
-      <c r="E53" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F53" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G53" t="n" s="279">
-        <v>0.3598901098901095</v>
-      </c>
-      <c r="H53" t="n" s="280">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="273">
-        <v>10217.0</v>
-      </c>
-      <c r="B54" t="n" s="274">
-        <v>9805341.0</v>
-      </c>
-      <c r="C54" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s" s="276">
+      <c r="E42" t="s" s="277">
         <v>44</v>
       </c>
-      <c r="E54" t="s" s="277">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s" s="278">
-        <v>48</v>
-      </c>
-      <c r="G54" t="n" s="279">
-        <v>-0.5000000000000009</v>
-      </c>
-      <c r="H54" t="n" s="280">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="273">
-        <v>10226.0</v>
-      </c>
-      <c r="B55" t="n" s="274">
-        <v>1.0310342E7</v>
-      </c>
-      <c r="C55" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D55" t="s" s="276">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F55" t="s" s="278">
-        <v>48</v>
-      </c>
-      <c r="G55" t="n" s="279">
-        <v>1.1839743589743588</v>
-      </c>
-      <c r="H55" t="n" s="280">
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="273">
-        <v>10228.0</v>
-      </c>
-      <c r="B56" t="n" s="274">
-        <v>1.0310492E7</v>
-      </c>
-      <c r="C56" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D56" t="s" s="276">
-        <v>42</v>
-      </c>
-      <c r="E56" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F56" t="s" s="278">
-        <v>47</v>
-      </c>
-      <c r="G56" t="n" s="279">
-        <v>1.7707264957264957</v>
-      </c>
-      <c r="H56" t="n" s="280">
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="273">
-        <v>10237.0</v>
-      </c>
-      <c r="B57" t="n" s="274">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C57" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D57" t="s" s="276">
+      <c r="F42" t="s" s="278">
         <v>45</v>
       </c>
-      <c r="E57" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F57" t="s" s="278">
-        <v>48</v>
-      </c>
-      <c r="G57" t="n" s="279">
-        <v>1.2628205128205137</v>
-      </c>
-      <c r="H57" t="n" s="280">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="273">
-        <v>10238.0</v>
-      </c>
-      <c r="B58" t="n" s="274">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C58" t="s" s="275">
-        <v>37</v>
-      </c>
-      <c r="D58" t="s" s="276">
-        <v>44</v>
-      </c>
-      <c r="E58" t="s" s="277">
-        <v>46</v>
-      </c>
-      <c r="F58" t="s" s="278">
-        <v>48</v>
-      </c>
-      <c r="G58" t="n" s="279">
-        <v>1.8056013431013436</v>
-      </c>
-      <c r="H58" t="n" s="280">
-        <v>4.333333333333333</v>
+      <c r="G42" t="n" s="279">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="280">
+        <v>1.4262566914250443</v>
       </c>
     </row>
   </sheetData>
@@ -4736,7 +5318,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -4757,29 +5339,29 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="310">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="306">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B6" t="n" s="311">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.5219118889815617</v>
+        <v>0.5236076377094848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.5219118889815617</v>
+        <v>0.5236076377094848</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -4803,29 +5385,29 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="330">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="326">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B12" t="e" s="331">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>0.8652935393212111</v>
+        <v>1.6260579807392488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>0.8652935393212111</v>
+        <v>1.6260579807392488</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -4849,29 +5431,29 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="350">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="346">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n" s="351">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.4780881110184383</v>
+        <v>0.14796397247726834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.4780881110184383</v>
+        <v>0.14796397247726834</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -4909,19 +5491,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.8811750373321178</v>
+        <v>-0.21542620670159454</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.5219118889815617</v>
+        <v>0.5236076377094848</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.9876107027065976</v>
+        <v>0.8812753586417726</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.4780881110184383</v>
+        <v>0.14796397247726834</v>
       </c>
     </row>
     <row r="25">
@@ -4941,187 +5523,357 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="392">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>0.8985042735042734</v>
+        <v>16.0</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>4.333333333333333</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>1.31929181929182</v>
+        <v>4.0</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>4.666666666666667</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>-0.2666666666666666</v>
+        <v>5.0</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>3.6666666666666665</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>0.2828601953601959</v>
+        <v>6.0</v>
       </c>
       <c r="B32" t="n" s="394">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="393">
+        <v>9.0</v>
+      </c>
+      <c r="B33" t="n" s="394">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="393">
+        <v>10.0</v>
+      </c>
+      <c r="B34" t="n" s="394">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="393">
+        <v>6.0</v>
+      </c>
+      <c r="B35" t="n" s="394">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="393">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
+      <c r="B36" t="n" s="394">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="393">
+        <v>14.0</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="39">
+      <c r="A39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="398">
+    <row r="40">
+      <c r="A40" t="s" s="398">
         <v>51</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="412">
+    <row r="41">
+      <c r="A41" t="s" s="412">
         <v>15</v>
       </c>
-      <c r="B36" t="s" s="412">
+      <c r="B41" t="s" s="412">
         <v>16</v>
       </c>
-      <c r="C36" t="s" s="412">
+      <c r="C41" t="s" s="412">
         <v>17</v>
       </c>
-      <c r="D36" t="s" s="412">
+      <c r="D41" t="s" s="412">
         <v>18</v>
       </c>
-      <c r="E36" t="s" s="412">
+      <c r="E41" t="s" s="412">
         <v>19</v>
       </c>
-      <c r="F36" t="s" s="412">
+      <c r="F41" t="s" s="412">
         <v>20</v>
       </c>
-      <c r="G36" t="s" s="412">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s" s="412">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="413">
+      <c r="G41" t="s" s="412">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s" s="412">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="413">
+        <v>10184.0</v>
+      </c>
+      <c r="B42" t="n" s="414">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C42" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s" s="416">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G42" t="n" s="419">
+        <v>16.0</v>
+      </c>
+      <c r="H42" t="n" s="420">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="413">
+        <v>10193.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G43" t="n" s="419">
+        <v>4.0</v>
+      </c>
+      <c r="H43" t="n" s="420">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="413">
         <v>10197.0</v>
       </c>
-      <c r="B37" t="n" s="414">
+      <c r="B44" t="n" s="414">
         <v>1.0276661E7</v>
       </c>
-      <c r="C37" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s" s="416">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s" s="418">
-        <v>31</v>
-      </c>
-      <c r="G37" t="n" s="419">
-        <v>0.8985042735042734</v>
-      </c>
-      <c r="H37" t="n" s="420">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="413">
+      <c r="C44" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G44" t="n" s="419">
+        <v>5.0</v>
+      </c>
+      <c r="H44" t="n" s="420">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="413">
         <v>10201.0</v>
       </c>
-      <c r="B38" t="n" s="414">
+      <c r="B45" t="n" s="414">
         <v>1.0276928E7</v>
       </c>
-      <c r="C38" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s" s="416">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s" s="418">
-        <v>31</v>
-      </c>
-      <c r="G38" t="n" s="419">
-        <v>1.31929181929182</v>
-      </c>
-      <c r="H38" t="n" s="420">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="413">
+      <c r="C45" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s" s="416">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G45" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="420">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="413">
+        <v>10204.0</v>
+      </c>
+      <c r="B46" t="n" s="414">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C46" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s" s="416">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G46" t="n" s="419">
+        <v>9.0</v>
+      </c>
+      <c r="H46" t="n" s="420">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="413">
         <v>10206.0</v>
       </c>
-      <c r="B39" t="n" s="414">
+      <c r="B47" t="n" s="414">
         <v>1.0310721E7</v>
       </c>
-      <c r="C39" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s" s="416">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F39" t="s" s="418">
-        <v>31</v>
-      </c>
-      <c r="G39" t="n" s="419">
-        <v>-0.2666666666666666</v>
-      </c>
-      <c r="H39" t="n" s="420">
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="413">
+      <c r="C47" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G47" t="n" s="419">
+        <v>10.0</v>
+      </c>
+      <c r="H47" t="n" s="420">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="413">
         <v>10213.0</v>
       </c>
-      <c r="B40" t="n" s="414">
+      <c r="B48" t="n" s="414">
         <v>1.027704E7</v>
       </c>
-      <c r="C40" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s" s="416">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F40" t="s" s="418">
-        <v>31</v>
-      </c>
-      <c r="G40" t="n" s="419">
-        <v>0.2828601953601959</v>
-      </c>
-      <c r="H40" t="n" s="420">
+      <c r="C48" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s" s="416">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H48" t="n" s="420">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="413">
+        <v>10223.0</v>
+      </c>
+      <c r="B49" t="n" s="414">
+        <v>9795185.0</v>
+      </c>
+      <c r="C49" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s" s="416">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G49" t="n" s="419">
         <v>5.0</v>
+      </c>
+      <c r="H49" t="n" s="420">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="413">
+        <v>10231.0</v>
+      </c>
+      <c r="B50" t="n" s="414">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C50" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s" s="416">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G50" t="n" s="419">
+        <v>14.0</v>
+      </c>
+      <c r="H50" t="n" s="420">
+        <v>-0.3246338035754202</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5902,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="422">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -5171,29 +5923,29 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="450">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="450">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="446">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B6" t="n" s="451">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>-0.6798535507288215</v>
+        <v>0.690677966101695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="446">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>-0.6798535507288215</v>
+        <v>0.690677966101695</v>
       </c>
       <c r="C7" t="n" s="452">
         <v>1.0</v>
@@ -5217,29 +5969,29 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="470">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="470">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="466">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B12" t="e" s="471">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>-2.452755931058377</v>
+        <v>2.5269040210793876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="466">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>-2.452755931058377</v>
+        <v>2.5269040210793876</v>
       </c>
       <c r="C13" t="e" s="472">
         <v>#DIV/0!</v>
@@ -5263,29 +6015,29 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="490">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="490">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="486">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n" s="491">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.043929381821362856</v>
+        <v>0.0394108366811885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="486">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.043929381821362856</v>
+        <v>0.0394108366811885</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>0.0</v>
@@ -5323,19 +6075,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>-0.9259181294856326</v>
+        <v>0.04905962520627532</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>-0.6798535507288215</v>
+        <v>0.690677966101695</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>-0.028681860689359486</v>
+        <v>0.9287756444936716</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.043929381821362856</v>
+        <v>0.0394108366811885</v>
       </c>
     </row>
     <row r="25">
@@ -5350,87 +6102,87 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="532">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s" s="532">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>1.985042735042736</v>
+        <v>16.0</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>4.0</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>-0.33638583638583697</v>
+        <v>4.0</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>4.5</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>2.4257936507936506</v>
+        <v>5.0</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>4.0</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>2.5915140415140416</v>
+        <v>6.0</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>3.8333333333333335</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>0.3598901098901095</v>
+        <v>9.0</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>4.5</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>1.1839743589743588</v>
+        <v>10.0</v>
       </c>
       <c r="B34" t="n" s="534">
-        <v>4.833333333333333</v>
+        <v>-0.07604771059156659</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="533">
-        <v>1.7707264957264957</v>
+        <v>6.0</v>
       </c>
       <c r="B35" t="n" s="534">
-        <v>4.166666666666667</v>
+        <v>0.44052628594143495</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="533">
-        <v>1.2628205128205137</v>
+        <v>5.0</v>
       </c>
       <c r="B36" t="n" s="534">
-        <v>4.0</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="533">
-        <v>1.8056013431013436</v>
+        <v>14.0</v>
       </c>
       <c r="B37" t="n" s="534">
-        <v>4.333333333333333</v>
+        <v>-0.3246338035754202</v>
       </c>
     </row>
     <row r="38">
@@ -5445,7 +6197,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="538">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -5468,244 +6220,244 @@
         <v>20</v>
       </c>
       <c r="G41" t="s" s="552">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="552">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="553">
-        <v>10179.0</v>
+        <v>10184.0</v>
       </c>
       <c r="B42" t="n" s="554">
-        <v>1.0310759E7</v>
+        <v>1.0276675E7</v>
       </c>
       <c r="C42" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s" s="556">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="558">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G42" t="n" s="559">
-        <v>1.985042735042736</v>
+        <v>16.0</v>
       </c>
       <c r="H42" t="n" s="560">
-        <v>4.0</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="553">
-        <v>10187.0</v>
+        <v>10193.0</v>
       </c>
       <c r="B43" t="n" s="554">
-        <v>9790781.0</v>
+        <v>1.0276762E7</v>
       </c>
       <c r="C43" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s" s="556">
         <v>39</v>
       </c>
       <c r="E43" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s" s="558">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" t="n" s="559">
-        <v>-0.33638583638583697</v>
+        <v>4.0</v>
       </c>
       <c r="H43" t="n" s="560">
-        <v>4.5</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="553">
-        <v>10202.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B44" t="n" s="554">
-        <v>1.0277036E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C44" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s" s="556">
         <v>40</v>
       </c>
       <c r="E44" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s" s="558">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" t="n" s="559">
-        <v>2.4257936507936506</v>
+        <v>5.0</v>
       </c>
       <c r="H44" t="n" s="560">
-        <v>4.0</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="553">
-        <v>10210.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B45" t="n" s="554">
-        <v>1.0277015E7</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C45" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s" s="556">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="558">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n" s="559">
-        <v>2.5915140415140416</v>
+        <v>6.0</v>
       </c>
       <c r="H45" t="n" s="560">
-        <v>3.8333333333333335</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="553">
-        <v>10214.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B46" t="n" s="554">
-        <v>1.0277022E7</v>
+        <v>1.0310471E7</v>
       </c>
       <c r="C46" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s" s="556">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="558">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G46" t="n" s="559">
-        <v>0.3598901098901095</v>
+        <v>9.0</v>
       </c>
       <c r="H46" t="n" s="560">
-        <v>4.5</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="553">
-        <v>10226.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B47" t="n" s="554">
-        <v>1.0310342E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C47" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s" s="556">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s" s="558">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G47" t="n" s="559">
-        <v>1.1839743589743588</v>
+        <v>10.0</v>
       </c>
       <c r="H47" t="n" s="560">
-        <v>4.833333333333333</v>
+        <v>-0.07604771059156659</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="553">
-        <v>10228.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B48" t="n" s="554">
-        <v>1.0310492E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C48" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s" s="556">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s" s="557">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="558">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G48" t="n" s="559">
-        <v>1.7707264957264957</v>
+        <v>6.0</v>
       </c>
       <c r="H48" t="n" s="560">
-        <v>4.166666666666667</v>
+        <v>0.44052628594143495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="553">
-        <v>10237.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B49" t="n" s="554">
-        <v>1.0377688E7</v>
+        <v>9795185.0</v>
       </c>
       <c r="C49" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s" s="556">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s" s="558">
         <v>45</v>
       </c>
-      <c r="E49" t="s" s="557">
-        <v>46</v>
-      </c>
-      <c r="F49" t="s" s="558">
-        <v>48</v>
-      </c>
       <c r="G49" t="n" s="559">
-        <v>1.2628205128205137</v>
+        <v>5.0</v>
       </c>
       <c r="H49" t="n" s="560">
-        <v>4.0</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="553">
-        <v>10238.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B50" t="n" s="554">
-        <v>1.0276953E7</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C50" t="s" s="555">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s" s="556">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s" s="557">
         <v>44</v>
       </c>
-      <c r="E50" t="s" s="557">
-        <v>46</v>
-      </c>
       <c r="F50" t="s" s="558">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G50" t="n" s="559">
-        <v>1.8056013431013436</v>
+        <v>14.0</v>
       </c>
       <c r="H50" t="n" s="560">
-        <v>4.333333333333333</v>
+        <v>-0.3246338035754202</v>
       </c>
     </row>
   </sheetData>
@@ -5734,7 +6486,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="562">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -5758,7 +6510,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="590">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -5766,21 +6518,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="591">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="592">
-        <v>0.5509080804800992</v>
+        <v>0.5003300984052713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="586">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B7" t="n" s="591">
-        <v>0.5509080804800992</v>
+        <v>0.5003300984052713</v>
       </c>
       <c r="C7" t="n" s="592">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5804,29 +6556,29 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="610">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="606">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="611">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="611">
+        <v>2.5991151265489843E8</v>
       </c>
       <c r="C12" t="n" s="612">
-        <v>1.6169407932358915</v>
+        <v>2.2380369542186345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="606">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n" s="611">
-        <v>1.6169407932358915</v>
-      </c>
-      <c r="C13" t="e" s="612">
-        <v>#DIV/0!</v>
+        <v>2.2380369542186345</v>
+      </c>
+      <c r="C13" t="n" s="612">
+        <v>2.5991151265489843E8</v>
       </c>
     </row>
     <row r="14">
@@ -5850,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="630">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -5861,15 +6613,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="632">
-        <v>0.15701842199789118</v>
+        <v>0.04081454677626839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="626">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n" s="631">
-        <v>0.15701842199789118</v>
+        <v>0.04081454677626839</v>
       </c>
       <c r="C19" t="n" s="632">
         <v>0.0</v>
@@ -5907,19 +6659,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="646">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="651">
-        <v>-0.2513359985655516</v>
+        <v>0.02591815798111985</v>
       </c>
       <c r="C24" t="n" s="652">
-        <v>0.5509080804800992</v>
+        <v>0.5003300984052713</v>
       </c>
       <c r="D24" t="n" s="653">
-        <v>0.9044604199191296</v>
+        <v>0.7908019795546152</v>
       </c>
       <c r="E24" t="n" s="654">
-        <v>0.15701842199789118</v>
+        <v>0.04081454677626839</v>
       </c>
     </row>
     <row r="25">
@@ -5934,7 +6686,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="658">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -5942,71 +6694,927 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="672">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="673">
-        <v>0.7499999999999991</v>
+        <v>6.0</v>
       </c>
       <c r="B29" t="n" s="674">
-        <v>6.0</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="673">
-        <v>1.151709401709402</v>
+        <v>2.0</v>
       </c>
       <c r="B30" t="n" s="674">
-        <v>6.2</v>
+        <v>-0.07604771059156659</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="673">
-        <v>0.8985042735042734</v>
+        <v>9.0</v>
       </c>
       <c r="B31" t="n" s="674">
-        <v>4.0</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="673">
-        <v>1.31929181929182</v>
+        <v>1.0</v>
       </c>
       <c r="B32" t="n" s="674">
-        <v>5.4</v>
+        <v>-0.8071144506354303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="673">
-        <v>1.0286935286935286</v>
+        <v>6.0</v>
       </c>
       <c r="B33" t="n" s="674">
-        <v>6.0</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="673">
-        <v>-0.2666666666666666</v>
+        <v>2.0</v>
       </c>
       <c r="B34" t="n" s="674">
-        <v>4.8</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="673">
-        <v>0.2828601953601959</v>
+        <v>3.0</v>
       </c>
       <c r="B35" t="n" s="674">
-        <v>5.0</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="673">
-        <v>0.41666666666666785</v>
+        <v>2.0</v>
       </c>
       <c r="B36" t="n" s="674">
-        <v>3.8</v>
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="673">
+        <v>4.0</v>
+      </c>
+      <c r="B37" t="n" s="674">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="673">
+        <v>2.0</v>
+      </c>
+      <c r="B38" t="n" s="674">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="673">
+        <v>2.0</v>
+      </c>
+      <c r="B39" t="n" s="674">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B40" t="n" s="674">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="673">
+        <v>0.0</v>
+      </c>
+      <c r="B41" t="n" s="674">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="673">
+        <v>4.0</v>
+      </c>
+      <c r="B42" t="n" s="674">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="673">
+        <v>5.0</v>
+      </c>
+      <c r="B43" t="n" s="674">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="673">
+        <v>0.0</v>
+      </c>
+      <c r="B44" t="n" s="674">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="673">
+        <v>9.0</v>
+      </c>
+      <c r="B45" t="n" s="674">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="678">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s" s="692">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s" s="692">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="693">
+        <v>10171.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>698531.0</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="693">
+        <v>10172.0</v>
+      </c>
+      <c r="B51" t="n" s="694">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C51" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="696">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G51" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H51" t="n" s="700">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="693">
+        <v>10184.0</v>
+      </c>
+      <c r="B52" t="n" s="694">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C52" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s" s="696">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G52" t="n" s="699">
+        <v>9.0</v>
+      </c>
+      <c r="H52" t="n" s="700">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="693">
+        <v>10185.0</v>
+      </c>
+      <c r="B53" t="n" s="694">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C53" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="696">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G53" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="n" s="700">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="693">
+        <v>10188.0</v>
+      </c>
+      <c r="B54" t="n" s="694">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C54" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="696">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G54" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H54" t="n" s="700">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="693">
+        <v>10193.0</v>
+      </c>
+      <c r="B55" t="n" s="694">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C55" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="696">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G55" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H55" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="693">
+        <v>10197.0</v>
+      </c>
+      <c r="B56" t="n" s="694">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C56" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="696">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G56" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="n" s="700">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="693">
+        <v>10201.0</v>
+      </c>
+      <c r="B57" t="n" s="694">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C57" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="696">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G57" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H57" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="693">
+        <v>10204.0</v>
+      </c>
+      <c r="B58" t="n" s="694">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C58" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s" s="696">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G58" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H58" t="n" s="700">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="693">
+        <v>10206.0</v>
+      </c>
+      <c r="B59" t="n" s="694">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C59" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s" s="696">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G59" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="n" s="700">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="693">
+        <v>10208.0</v>
+      </c>
+      <c r="B60" t="n" s="694">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C60" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="696">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G60" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="n" s="700">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="693">
+        <v>10211.0</v>
+      </c>
+      <c r="B61" t="n" s="694">
+        <v>9311643.0</v>
+      </c>
+      <c r="C61" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="696">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G61" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="693">
+        <v>10213.0</v>
+      </c>
+      <c r="B62" t="n" s="694">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C62" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s" s="696">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G62" t="n" s="699">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="n" s="700">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="693">
+        <v>10216.0</v>
+      </c>
+      <c r="B63" t="n" s="694">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C63" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="696">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G63" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H63" t="n" s="700">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="693">
+        <v>10217.0</v>
+      </c>
+      <c r="B64" t="n" s="694">
+        <v>9805341.0</v>
+      </c>
+      <c r="C64" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s" s="696">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G64" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H64" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="693">
+        <v>10223.0</v>
+      </c>
+      <c r="B65" t="n" s="694">
+        <v>9795185.0</v>
+      </c>
+      <c r="C65" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="696">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G65" t="n" s="699">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="693">
+        <v>10231.0</v>
+      </c>
+      <c r="B66" t="n" s="694">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C66" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="696">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G66" t="n" s="699">
+        <v>9.0</v>
+      </c>
+      <c r="H66" t="n" s="700">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>0.5915074010555535</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>48</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>0.5915074010555535</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="751">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>1.7969640167240142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>48</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>1.7969640167240142</v>
+      </c>
+      <c r="C13" t="e" s="752">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.12246623030701631</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>48</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.12246623030701631</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>58</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>-0.19404880539045047</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>0.5915074010555535</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>0.9148522842348755</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.12246623030701631</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>6.0</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>2.0</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>2.0</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="813">
+        <v>4.0</v>
+      </c>
+      <c r="B35" t="n" s="814">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="813">
+        <v>5.0</v>
+      </c>
+      <c r="B36" t="n" s="814">
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="37">
@@ -6020,242 +7628,242 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="678">
-        <v>59</v>
+      <c r="A39" t="s" s="818">
+        <v>63</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="692">
+      <c r="A40" t="s" s="832">
         <v>15</v>
       </c>
-      <c r="B40" t="s" s="692">
+      <c r="B40" t="s" s="832">
         <v>16</v>
       </c>
-      <c r="C40" t="s" s="692">
+      <c r="C40" t="s" s="832">
         <v>17</v>
       </c>
-      <c r="D40" t="s" s="692">
+      <c r="D40" t="s" s="832">
         <v>18</v>
       </c>
-      <c r="E40" t="s" s="692">
+      <c r="E40" t="s" s="832">
         <v>19</v>
       </c>
-      <c r="F40" t="s" s="692">
+      <c r="F40" t="s" s="832">
         <v>20</v>
       </c>
-      <c r="G40" t="s" s="692">
+      <c r="G40" t="s" s="832">
         <v>3</v>
       </c>
-      <c r="H40" t="s" s="692">
-        <v>56</v>
+      <c r="H40" t="s" s="832">
+        <v>48</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="693">
-        <v>10175.0</v>
-      </c>
-      <c r="B41" t="n" s="694">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C41" t="s" s="695">
+      <c r="A41" t="n" s="833">
+        <v>10171.0</v>
+      </c>
+      <c r="B41" t="n" s="834">
+        <v>698531.0</v>
+      </c>
+      <c r="C41" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D41" t="s" s="696">
+      <c r="D41" t="s" s="836">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="839">
+        <v>6.0</v>
+      </c>
+      <c r="H41" t="n" s="840">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="833">
+        <v>10172.0</v>
+      </c>
+      <c r="B42" t="n" s="834">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C42" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="836">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="839">
+        <v>2.0</v>
+      </c>
+      <c r="H42" t="n" s="840">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="833">
+        <v>10185.0</v>
+      </c>
+      <c r="B43" t="n" s="834">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C43" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="836">
         <v>22</v>
       </c>
-      <c r="E41" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s" s="698">
+      <c r="E43" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="838">
         <v>31</v>
       </c>
-      <c r="G41" t="n" s="699">
-        <v>0.7499999999999991</v>
-      </c>
-      <c r="H41" t="n" s="700">
+      <c r="G43" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H43" t="n" s="840">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="833">
+        <v>10188.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="836">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="839">
         <v>6.0</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="693">
-        <v>10184.0</v>
-      </c>
-      <c r="B42" t="n" s="694">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C42" t="s" s="695">
+      <c r="H44" t="n" s="840">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="833">
+        <v>10208.0</v>
+      </c>
+      <c r="B45" t="n" s="834">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C45" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D42" t="s" s="696">
+      <c r="D45" t="s" s="836">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="838">
+        <v>32</v>
+      </c>
+      <c r="G45" t="n" s="839">
+        <v>2.0</v>
+      </c>
+      <c r="H45" t="n" s="840">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="833">
+        <v>10211.0</v>
+      </c>
+      <c r="B46" t="n" s="834">
+        <v>9311643.0</v>
+      </c>
+      <c r="C46" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="836">
         <v>23</v>
       </c>
-      <c r="E42" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s" s="698">
+      <c r="E46" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s" s="838">
         <v>31</v>
       </c>
-      <c r="G42" t="n" s="699">
-        <v>1.151709401709402</v>
-      </c>
-      <c r="H42" t="n" s="700">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="693">
-        <v>10197.0</v>
-      </c>
-      <c r="B43" t="n" s="694">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C43" t="s" s="695">
+      <c r="G46" t="n" s="839">
+        <v>1.0</v>
+      </c>
+      <c r="H46" t="n" s="840">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="833">
+        <v>10216.0</v>
+      </c>
+      <c r="B47" t="n" s="834">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C47" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D43" t="s" s="696">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n" s="699">
-        <v>0.8985042735042734</v>
-      </c>
-      <c r="H43" t="n" s="700">
+      <c r="D47" t="s" s="836">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s" s="838">
+        <v>32</v>
+      </c>
+      <c r="G47" t="n" s="839">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="693">
-        <v>10201.0</v>
-      </c>
-      <c r="B44" t="n" s="694">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C44" t="s" s="695">
+      <c r="H47" t="n" s="840">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="833">
+        <v>10217.0</v>
+      </c>
+      <c r="B48" t="n" s="834">
+        <v>9805341.0</v>
+      </c>
+      <c r="C48" t="s" s="835">
         <v>21</v>
       </c>
-      <c r="D44" t="s" s="696">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n" s="699">
-        <v>1.31929181929182</v>
-      </c>
-      <c r="H44" t="n" s="700">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="693">
-        <v>10204.0</v>
-      </c>
-      <c r="B45" t="n" s="694">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C45" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="696">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G45" t="n" s="699">
-        <v>1.0286935286935286</v>
-      </c>
-      <c r="H45" t="n" s="700">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="693">
-        <v>10206.0</v>
-      </c>
-      <c r="B46" t="n" s="694">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C46" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="696">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="699">
-        <v>-0.2666666666666666</v>
-      </c>
-      <c r="H46" t="n" s="700">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="693">
-        <v>10213.0</v>
-      </c>
-      <c r="B47" t="n" s="694">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C47" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="696">
-        <v>28</v>
-      </c>
-      <c r="E47" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G47" t="n" s="699">
-        <v>0.2828601953601959</v>
-      </c>
-      <c r="H47" t="n" s="700">
+      <c r="D48" t="s" s="836">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s" s="838">
+        <v>32</v>
+      </c>
+      <c r="G48" t="n" s="839">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="693">
-        <v>10231.0</v>
-      </c>
-      <c r="B48" t="n" s="694">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C48" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="696">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s" s="697">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G48" t="n" s="699">
-        <v>0.41666666666666785</v>
-      </c>
-      <c r="H48" t="n" s="700">
-        <v>3.8</v>
+      <c r="H48" t="n" s="840">
+        <v>0.7357406959794577</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/case02/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case02/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,20 +6,19 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_pearson_35" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_44" r:id="rId3" sheetId="1"/>
     <sheet name="moderate_spearman_70" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_pearson_88" r:id="rId5" sheetId="3"/>
-    <sheet name="moderate_spearman_88" r:id="rId6" sheetId="4"/>
-    <sheet name="moderate_spearman_104" r:id="rId7" sheetId="5"/>
-    <sheet name="moderate_spearman_108" r:id="rId8" sheetId="6"/>
+    <sheet name="moderate_spearman_88" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_104" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_108" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="63">
   <si>
-    <t>Correlation information for NroDesiredInteractions - Level of Motivation in ont-gamified.Apprentice using the method: pearson</t>
+    <t>Correlation information for DiffTheta - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -28,10 +27,10 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>NroDesiredInteractions</t>
+    <t>DiffTheta</t>
   </si>
   <si>
-    <t>Level of Motivation</t>
+    <t>Attention</t>
   </si>
   <si>
     <t>Matrix of t-test value</t>
@@ -55,13 +54,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>NrDsI-LvloM</t>
+    <t>DffTh-Attnt</t>
   </si>
   <si>
-    <t>Data source for NroDesiredInteractions - Level of Motivation in ont-gamified.Apprentice</t>
+    <t>Data source for DiffTheta - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for NroDesiredInteractions - Level of Motivation in ont-gamified.Apprentice</t>
+    <t>Data full source for DiffTheta - Attention in ont-gamified.Apprentice</t>
   </si>
   <si>
     <t>UserID</t>
@@ -91,19 +90,19 @@
     <t>Grupo Razorg</t>
   </si>
   <si>
-    <t>Grupo Yeka</t>
-  </si>
-  <si>
     <t>Grupo Paldira</t>
   </si>
   <si>
     <t>Grupo Losvakai</t>
   </si>
   <si>
-    <t>Grupo Ellaru</t>
+    <t>Grupo Koil</t>
   </si>
   <si>
-    <t>Grupo Koil</t>
+    <t>Grupo Yeka</t>
+  </si>
+  <si>
+    <t>Grupo Ellaru</t>
   </si>
   <si>
     <t>Grupo Belos</t>
@@ -121,7 +120,7 @@
     <t>Correlation information for NroDesiredInteractions - Attention in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Attention</t>
+    <t>NroDesiredInteractions</t>
   </si>
   <si>
     <t>NrDsI-Attnt</t>
@@ -157,7 +156,7 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: pearson</t>
+    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>NroTotalInteractions</t>
@@ -187,9 +186,6 @@
     <t>Grupo Team 4</t>
   </si>
   <si>
-    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: spearman</t>
-  </si>
-  <si>
     <t>Correlation information for NroDesiredInteractions - Satisfaction in Master using the method: spearman</t>
   </si>
   <si>
@@ -216,486 +212,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="445">
+  <fonts count="371">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3105,7 +2628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="841">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3927,170 +3450,6 @@
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4151,7 +3510,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>0.5439426570340364</v>
+        <v>-0.5728379132475444</v>
       </c>
     </row>
     <row r="7">
@@ -4159,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>0.5439426570340364</v>
+        <v>-0.5728379132475444</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -4197,7 +3556,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>2.2455277783246688</v>
+        <v>-1.8490235376139537</v>
       </c>
     </row>
     <row r="13">
@@ -4205,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>2.2455277783246688</v>
+        <v>-1.8490235376139537</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -4243,7 +3602,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.0443532241354454</v>
+        <v>0.10692018242599732</v>
       </c>
     </row>
     <row r="19">
@@ -4251,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.0443532241354454</v>
+        <v>0.10692018242599732</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -4292,16 +3651,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>0.01878443230738118</v>
+        <v>-0.8960656848218704</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>0.5439426570340364</v>
+        <v>-0.5728379132475444</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.833864765388459</v>
+        <v>0.1473350836347761</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.0443532241354454</v>
+        <v>0.10692018242599732</v>
       </c>
     </row>
     <row r="25">
@@ -4329,195 +3688,285 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.0</v>
+        <v>0.01211046355488056</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.04746596278400641</v>
+        <v>-0.2482126716355401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.0</v>
+        <v>-0.018017776512184103</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.04899791807321898</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>0.0</v>
+        <v>0.03290535220278847</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>1.7085564913064826</v>
+        <v>-0.4939415891435046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>0.0</v>
+        <v>0.4970404268963286</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.1432714652541453</v>
+        <v>-0.4939415891435046</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>0.0</v>
+        <v>-0.040979642846269676</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>-0.5863850352781681</v>
+        <v>0.2753338747076326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>0.0</v>
+        <v>-0.005146359116315315</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.5007604435171952</v>
+        <v>0.5203987443460171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>0.0</v>
+        <v>0.4190145075607532</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>0.04746596278400641</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>0.0</v>
+        <v>0.3286436590610784</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>-0.6711884370789655</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="113">
-        <v>0.0</v>
+        <v>0.023150873216642717</v>
       </c>
       <c r="B37" t="n" s="114">
-        <v>0.5651809586659317</v>
+        <v>0.2753338747076326</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B38" t="n" s="114">
-        <v>-0.1432714652541453</v>
+      <c r="A38" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="114">
-        <v>1.5094390257013832</v>
+      <c r="A39" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B40" t="n" s="114">
-        <v>0.45633937173202754</v>
+      <c r="A40" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B41" t="n" s="114">
-        <v>0.04746596278400641</v>
+      <c r="A41" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="B42" t="n" s="114">
-        <v>0.2471129891271897</v>
+      <c r="A42" t="n" s="133">
+        <v>10179.0</v>
+      </c>
+      <c r="B42" t="n" s="134">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C42" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="139">
+        <v>0.01211046355488056</v>
+      </c>
+      <c r="H42" t="n" s="140">
+        <v>-0.2482126716355401</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>1</v>
+      <c r="A43" t="n" s="133">
+        <v>10187.0</v>
+      </c>
+      <c r="B43" t="n" s="134">
+        <v>9790781.0</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>-0.018017776512184103</v>
+      </c>
+      <c r="H43" t="n" s="140">
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44" t="n" s="133">
+        <v>10202.0</v>
+      </c>
+      <c r="B44" t="n" s="134">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C44" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="139">
+        <v>0.03290535220278847</v>
+      </c>
+      <c r="H44" t="n" s="140">
+        <v>-0.4939415891435046</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="118">
-        <v>14</v>
+      <c r="A45" t="n" s="133">
+        <v>10210.0</v>
+      </c>
+      <c r="B45" t="n" s="134">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C45" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n" s="139">
+        <v>0.4970404268963286</v>
+      </c>
+      <c r="H45" t="n" s="140">
+        <v>-0.4939415891435046</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s" s="132">
-        <v>4</v>
+      <c r="A46" t="n" s="133">
+        <v>10214.0</v>
+      </c>
+      <c r="B46" t="n" s="134">
+        <v>1.0277022E7</v>
+      </c>
+      <c r="C46" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="139">
+        <v>-0.040979642846269676</v>
+      </c>
+      <c r="H46" t="n" s="140">
+        <v>0.2753338747076326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="133">
-        <v>10179.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B47" t="n" s="134">
-        <v>1.0310759E7</v>
+        <v>1.0310342E7</v>
       </c>
       <c r="C47" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D47" t="s" s="136">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F47" t="s" s="138">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n" s="139">
-        <v>0.0</v>
+        <v>-0.005146359116315315</v>
       </c>
       <c r="H47" t="n" s="140">
-        <v>0.04746596278400641</v>
+        <v>0.5203987443460171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10187.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>9790781.0</v>
+        <v>1.0310492E7</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s" s="137">
         <v>30</v>
@@ -4526,24 +3975,24 @@
         <v>31</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>0.0</v>
+        <v>0.4190145075607532</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>-0.04899791807321898</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="133">
-        <v>10191.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B49" t="n" s="134">
-        <v>1.0276981E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C49" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="136">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s" s="137">
         <v>30</v>
@@ -4552,296 +4001,36 @@
         <v>32</v>
       </c>
       <c r="G49" t="n" s="139">
-        <v>0.0</v>
+        <v>0.3286436590610784</v>
       </c>
       <c r="H49" t="n" s="140">
-        <v>1.7085564913064826</v>
+        <v>0.015219938416659686</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="133">
-        <v>10202.0</v>
+        <v>10238.0</v>
       </c>
       <c r="B50" t="n" s="134">
-        <v>1.0277036E7</v>
+        <v>1.0276953E7</v>
       </c>
       <c r="C50" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="136">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F50" t="s" s="138">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="n" s="139">
-        <v>0.0</v>
+        <v>0.023150873216642717</v>
       </c>
       <c r="H50" t="n" s="140">
-        <v>-0.1432714652541453</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="133">
-        <v>10210.0</v>
-      </c>
-      <c r="B51" t="n" s="134">
-        <v>1.0277015E7</v>
-      </c>
-      <c r="C51" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G51" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H51" t="n" s="140">
-        <v>-0.5863850352781681</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="133">
-        <v>10212.0</v>
-      </c>
-      <c r="B52" t="n" s="134">
-        <v>9065750.0</v>
-      </c>
-      <c r="C52" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F52" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G52" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H52" t="n" s="140">
-        <v>-0.5007604435171952</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="133">
-        <v>10214.0</v>
-      </c>
-      <c r="B53" t="n" s="134">
-        <v>1.0277022E7</v>
-      </c>
-      <c r="C53" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E53" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F53" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G53" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H53" t="n" s="140">
-        <v>0.04746596278400641</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="133">
-        <v>10219.0</v>
-      </c>
-      <c r="B54" t="n" s="134">
-        <v>1.0276831E7</v>
-      </c>
-      <c r="C54" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G54" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="140">
-        <v>-0.6711884370789655</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="133">
-        <v>10226.0</v>
-      </c>
-      <c r="B55" t="n" s="134">
-        <v>1.0310342E7</v>
-      </c>
-      <c r="C55" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E55" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G55" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H55" t="n" s="140">
-        <v>0.5651809586659317</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="133">
-        <v>10228.0</v>
-      </c>
-      <c r="B56" t="n" s="134">
-        <v>1.0310492E7</v>
-      </c>
-      <c r="C56" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F56" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G56" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H56" t="n" s="140">
-        <v>-0.1432714652541453</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="133">
-        <v>10230.0</v>
-      </c>
-      <c r="B57" t="n" s="134">
-        <v>1.0351992E7</v>
-      </c>
-      <c r="C57" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E57" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F57" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G57" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H57" t="n" s="140">
-        <v>1.5094390257013832</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="133">
-        <v>10233.0</v>
-      </c>
-      <c r="B58" t="n" s="134">
-        <v>9805320.0</v>
-      </c>
-      <c r="C58" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s" s="138">
-        <v>31</v>
-      </c>
-      <c r="G58" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>0.45633937173202754</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="133">
-        <v>10237.0</v>
-      </c>
-      <c r="B59" t="n" s="134">
-        <v>1.0377688E7</v>
-      </c>
-      <c r="C59" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E59" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G59" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H59" t="n" s="140">
-        <v>0.04746596278400641</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="133">
-        <v>10238.0</v>
-      </c>
-      <c r="B60" t="n" s="134">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C60" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s" s="137">
-        <v>30</v>
-      </c>
-      <c r="F60" t="s" s="138">
-        <v>32</v>
-      </c>
-      <c r="G60" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="H60" t="n" s="140">
-        <v>0.2471129891271897</v>
+        <v>0.2753338747076326</v>
       </c>
     </row>
   </sheetData>
@@ -4891,15 +4080,15 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="170">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="166">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n" s="171">
         <v>0.9999999999999998</v>
@@ -4910,7 +4099,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n" s="171">
         <v>-0.6708203932499369</v>
@@ -4937,15 +4126,15 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="190">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n" s="191">
         <v>8.21912370089156E7</v>
@@ -4956,7 +4145,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n" s="191">
         <v>-1.5666989036012806</v>
@@ -4983,15 +4172,15 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="210">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="206">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n" s="211">
         <v>0.0</v>
@@ -5002,7 +4191,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n" s="211">
         <v>0.2151699425695499</v>
@@ -5075,10 +4264,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="252">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -5156,10 +4345,10 @@
         <v>20</v>
       </c>
       <c r="G37" t="s" s="272">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s" s="272">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -5353,7 +4542,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.5236076377094848</v>
+        <v>0.690677966101695</v>
       </c>
     </row>
     <row r="7">
@@ -5361,7 +4550,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.5236076377094848</v>
+        <v>0.690677966101695</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -5399,7 +4588,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>1.6260579807392488</v>
+        <v>2.5269040210793876</v>
       </c>
     </row>
     <row r="13">
@@ -5407,7 +4596,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>1.6260579807392488</v>
+        <v>2.5269040210793876</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -5445,7 +4634,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.14796397247726834</v>
+        <v>0.0394108366811885</v>
       </c>
     </row>
     <row r="19">
@@ -5453,7 +4642,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.14796397247726834</v>
+        <v>0.0394108366811885</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -5494,16 +4683,16 @@
         <v>49</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.21542620670159454</v>
+        <v>0.04905962520627532</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.5236076377094848</v>
+        <v>0.690677966101695</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.8812753586417726</v>
+        <v>0.9287756444936716</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.14796397247726834</v>
+        <v>0.0394108366811885</v>
       </c>
     </row>
     <row r="25">
@@ -5923,7 +5112,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="450">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="450">
         <v>48</v>
@@ -5931,13 +5120,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="446">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n" s="451">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>0.690677966101695</v>
+        <v>0.5003300984052713</v>
       </c>
     </row>
     <row r="7">
@@ -5945,10 +5134,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>0.690677966101695</v>
+        <v>0.5003300984052713</v>
       </c>
       <c r="C7" t="n" s="452">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5969,7 +5158,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="470">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="470">
         <v>48</v>
@@ -5977,13 +5166,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="466">
-        <v>47</v>
-      </c>
-      <c r="B12" t="e" s="471">
-        <v>#DIV/0!</v>
+        <v>34</v>
+      </c>
+      <c r="B12" t="n" s="471">
+        <v>2.5991151265489843E8</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>2.5269040210793876</v>
+        <v>2.2380369542186345</v>
       </c>
     </row>
     <row r="13">
@@ -5991,10 +5180,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>2.5269040210793876</v>
-      </c>
-      <c r="C13" t="e" s="472">
-        <v>#DIV/0!</v>
+        <v>2.2380369542186345</v>
+      </c>
+      <c r="C13" t="n" s="472">
+        <v>2.5991151265489843E8</v>
       </c>
     </row>
     <row r="14">
@@ -6015,7 +5204,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="490">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="490">
         <v>48</v>
@@ -6023,13 +5212,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="486">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n" s="491">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.0394108366811885</v>
+        <v>0.04081454677626839</v>
       </c>
     </row>
     <row r="19">
@@ -6037,7 +5226,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.0394108366811885</v>
+        <v>0.04081454677626839</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>0.0</v>
@@ -6075,19 +5264,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>0.04905962520627532</v>
+        <v>0.02591815798111985</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>0.690677966101695</v>
+        <v>0.5003300984052713</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.9287756444936716</v>
+        <v>0.7908019795546152</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.0394108366811885</v>
+        <v>0.04081454677626839</v>
       </c>
     </row>
     <row r="25">
@@ -6102,12 +5291,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="532">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s" s="532">
         <v>48</v>
@@ -6115,348 +5304,620 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>1.0956641887062895</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>-1.5892360279087838</v>
+        <v>-0.07604771059156659</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>-0.5710388437252591</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>0.7357406959794577</v>
+        <v>-0.8071144506354303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>1.0956641887062895</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B34" t="n" s="534">
-        <v>-0.07604771059156659</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="533">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B35" t="n" s="534">
-        <v>0.44052628594143495</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="533">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B36" t="n" s="534">
-        <v>-1.5892360279087838</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="533">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="B37" t="n" s="534">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="533">
+        <v>2.0</v>
+      </c>
+      <c r="B38" t="n" s="534">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="533">
+        <v>2.0</v>
+      </c>
+      <c r="B39" t="n" s="534">
         <v>-0.3246338035754202</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="40">
+      <c r="A40" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B40" t="n" s="534">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B41" t="n" s="534">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="533">
+        <v>4.0</v>
+      </c>
+      <c r="B42" t="n" s="534">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="533">
+        <v>5.0</v>
+      </c>
+      <c r="B43" t="n" s="534">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B44" t="n" s="534">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="533">
+        <v>9.0</v>
+      </c>
+      <c r="B45" t="n" s="534">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="47">
+      <c r="A47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="538">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="552">
+    <row r="48">
+      <c r="A48" t="s" s="538">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="552">
         <v>15</v>
       </c>
-      <c r="B41" t="s" s="552">
+      <c r="B49" t="s" s="552">
         <v>16</v>
       </c>
-      <c r="C41" t="s" s="552">
+      <c r="C49" t="s" s="552">
         <v>17</v>
       </c>
-      <c r="D41" t="s" s="552">
+      <c r="D49" t="s" s="552">
         <v>18</v>
       </c>
-      <c r="E41" t="s" s="552">
+      <c r="E49" t="s" s="552">
         <v>19</v>
       </c>
-      <c r="F41" t="s" s="552">
+      <c r="F49" t="s" s="552">
         <v>20</v>
       </c>
-      <c r="G41" t="s" s="552">
-        <v>47</v>
-      </c>
-      <c r="H41" t="s" s="552">
+      <c r="G49" t="s" s="552">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s" s="552">
         <v>48</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="553">
-        <v>10184.0</v>
-      </c>
-      <c r="B42" t="n" s="554">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C42" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s" s="556">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G42" t="n" s="559">
-        <v>16.0</v>
-      </c>
-      <c r="H42" t="n" s="560">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="553">
-        <v>10193.0</v>
-      </c>
-      <c r="B43" t="n" s="554">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C43" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s" s="556">
-        <v>39</v>
-      </c>
-      <c r="E43" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G43" t="n" s="559">
-        <v>4.0</v>
-      </c>
-      <c r="H43" t="n" s="560">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="553">
-        <v>10197.0</v>
-      </c>
-      <c r="B44" t="n" s="554">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C44" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s" s="556">
-        <v>40</v>
-      </c>
-      <c r="E44" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G44" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H44" t="n" s="560">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="553">
-        <v>10201.0</v>
-      </c>
-      <c r="B45" t="n" s="554">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C45" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s" s="556">
-        <v>41</v>
-      </c>
-      <c r="E45" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G45" t="n" s="559">
-        <v>6.0</v>
-      </c>
-      <c r="H45" t="n" s="560">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="553">
-        <v>10204.0</v>
-      </c>
-      <c r="B46" t="n" s="554">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C46" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s" s="556">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G46" t="n" s="559">
-        <v>9.0</v>
-      </c>
-      <c r="H46" t="n" s="560">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="553">
-        <v>10206.0</v>
-      </c>
-      <c r="B47" t="n" s="554">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C47" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s" s="556">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G47" t="n" s="559">
-        <v>10.0</v>
-      </c>
-      <c r="H47" t="n" s="560">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="553">
-        <v>10213.0</v>
-      </c>
-      <c r="B48" t="n" s="554">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C48" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s" s="556">
-        <v>43</v>
-      </c>
-      <c r="E48" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G48" t="n" s="559">
-        <v>6.0</v>
-      </c>
-      <c r="H48" t="n" s="560">
-        <v>0.44052628594143495</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="553">
-        <v>10223.0</v>
-      </c>
-      <c r="B49" t="n" s="554">
-        <v>9795185.0</v>
-      </c>
-      <c r="C49" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D49" t="s" s="556">
-        <v>54</v>
-      </c>
-      <c r="E49" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F49" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G49" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H49" t="n" s="560">
-        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="553">
-        <v>10231.0</v>
+        <v>10171.0</v>
       </c>
       <c r="B50" t="n" s="554">
-        <v>1.0276911E7</v>
+        <v>698531.0</v>
       </c>
       <c r="C50" t="s" s="555">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s" s="556">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s" s="557">
         <v>44</v>
       </c>
       <c r="F50" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H50" t="n" s="560">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="553">
+        <v>10172.0</v>
+      </c>
+      <c r="B51" t="n" s="554">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C51" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s" s="556">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G51" t="n" s="559">
+        <v>2.0</v>
+      </c>
+      <c r="H51" t="n" s="560">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="553">
+        <v>10184.0</v>
+      </c>
+      <c r="B52" t="n" s="554">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C52" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s" s="556">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s" s="558">
         <v>45</v>
       </c>
-      <c r="G50" t="n" s="559">
-        <v>14.0</v>
-      </c>
-      <c r="H50" t="n" s="560">
+      <c r="G52" t="n" s="559">
+        <v>9.0</v>
+      </c>
+      <c r="H52" t="n" s="560">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="553">
+        <v>10185.0</v>
+      </c>
+      <c r="B53" t="n" s="554">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C53" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="556">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G53" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="n" s="560">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B54" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C54" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s" s="556">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G54" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H54" t="n" s="560">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="553">
+        <v>10193.0</v>
+      </c>
+      <c r="B55" t="n" s="554">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C55" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="556">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G55" t="n" s="559">
+        <v>2.0</v>
+      </c>
+      <c r="H55" t="n" s="560">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="553">
+        <v>10197.0</v>
+      </c>
+      <c r="B56" t="n" s="554">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C56" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="556">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G56" t="n" s="559">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="n" s="560">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="553">
+        <v>10201.0</v>
+      </c>
+      <c r="B57" t="n" s="554">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C57" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="556">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G57" t="n" s="559">
+        <v>2.0</v>
+      </c>
+      <c r="H57" t="n" s="560">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="553">
+        <v>10204.0</v>
+      </c>
+      <c r="B58" t="n" s="554">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C58" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s" s="556">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G58" t="n" s="559">
+        <v>4.0</v>
+      </c>
+      <c r="H58" t="n" s="560">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="553">
+        <v>10206.0</v>
+      </c>
+      <c r="B59" t="n" s="554">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C59" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s" s="556">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G59" t="n" s="559">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="n" s="560">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="553">
+        <v>10208.0</v>
+      </c>
+      <c r="B60" t="n" s="554">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C60" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="556">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s" s="558">
+        <v>32</v>
+      </c>
+      <c r="G60" t="n" s="559">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="n" s="560">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="553">
+        <v>10211.0</v>
+      </c>
+      <c r="B61" t="n" s="554">
+        <v>9311643.0</v>
+      </c>
+      <c r="C61" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s" s="556">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s" s="558">
+        <v>31</v>
+      </c>
+      <c r="G61" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n" s="560">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="553">
+        <v>10213.0</v>
+      </c>
+      <c r="B62" t="n" s="554">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C62" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s" s="556">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G62" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="n" s="560">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="553">
+        <v>10216.0</v>
+      </c>
+      <c r="B63" t="n" s="554">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C63" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s" s="556">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s" s="558">
+        <v>32</v>
+      </c>
+      <c r="G63" t="n" s="559">
+        <v>4.0</v>
+      </c>
+      <c r="H63" t="n" s="560">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="553">
+        <v>10217.0</v>
+      </c>
+      <c r="B64" t="n" s="554">
+        <v>9805341.0</v>
+      </c>
+      <c r="C64" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s" s="556">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s" s="558">
+        <v>32</v>
+      </c>
+      <c r="G64" t="n" s="559">
+        <v>5.0</v>
+      </c>
+      <c r="H64" t="n" s="560">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="553">
+        <v>10223.0</v>
+      </c>
+      <c r="B65" t="n" s="554">
+        <v>9795185.0</v>
+      </c>
+      <c r="C65" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="556">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G65" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n" s="560">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="553">
+        <v>10231.0</v>
+      </c>
+      <c r="B66" t="n" s="554">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C66" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="556">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G66" t="n" s="559">
+        <v>9.0</v>
+      </c>
+      <c r="H66" t="n" s="560">
         <v>-0.3246338035754202</v>
       </c>
     </row>
@@ -6486,7 +5947,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="562">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -6507,7 +5968,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="590">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s" s="590">
         <v>48</v>
@@ -6515,13 +5976,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="586">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B6" t="n" s="591">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="592">
-        <v>0.5003300984052713</v>
+        <v>0.5915074010555535</v>
       </c>
     </row>
     <row r="7">
@@ -6529,10 +5990,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="n" s="591">
-        <v>0.5003300984052713</v>
+        <v>0.5915074010555535</v>
       </c>
       <c r="C7" t="n" s="592">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -6553,7 +6014,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="610">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="610">
         <v>48</v>
@@ -6561,13 +6022,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="606">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n" s="611">
-        <v>2.5991151265489843E8</v>
+        <v>34</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="612">
-        <v>2.2380369542186345</v>
+        <v>1.7969640167240142</v>
       </c>
     </row>
     <row r="13">
@@ -6575,10 +6036,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="n" s="611">
-        <v>2.2380369542186345</v>
-      </c>
-      <c r="C13" t="n" s="612">
-        <v>2.5991151265489843E8</v>
+        <v>1.7969640167240142</v>
+      </c>
+      <c r="C13" t="e" s="612">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -6599,7 +6060,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="630">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="630">
         <v>48</v>
@@ -6607,13 +6068,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="626">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n" s="631">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="632">
-        <v>0.04081454677626839</v>
+        <v>0.12246623030701631</v>
       </c>
     </row>
     <row r="19">
@@ -6621,7 +6082,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="n" s="631">
-        <v>0.04081454677626839</v>
+        <v>0.12246623030701631</v>
       </c>
       <c r="C19" t="n" s="632">
         <v>0.0</v>
@@ -6659,19 +6120,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="646">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="n" s="651">
-        <v>0.02591815798111985</v>
+        <v>-0.19404880539045047</v>
       </c>
       <c r="C24" t="n" s="652">
-        <v>0.5003300984052713</v>
+        <v>0.5915074010555535</v>
       </c>
       <c r="D24" t="n" s="653">
-        <v>0.7908019795546152</v>
+        <v>0.9148522842348755</v>
       </c>
       <c r="E24" t="n" s="654">
-        <v>0.04081454677626839</v>
+        <v>0.12246623030701631</v>
       </c>
     </row>
     <row r="25">
@@ -6686,12 +6147,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="658">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="672">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s" s="672">
         <v>48</v>
@@ -6715,31 +6176,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="673">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="B31" t="n" s="674">
-        <v>1.0956641887062895</v>
+        <v>-0.8071144506354303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="673">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B32" t="n" s="674">
-        <v>-0.8071144506354303</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="673">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B33" t="n" s="674">
-        <v>-0.5710388437252591</v>
+        <v>-0.3246338035754202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="673">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B34" t="n" s="674">
         <v>-1.5892360279087838</v>
@@ -6747,873 +6208,17 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="673">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B35" t="n" s="674">
-        <v>-0.5710388437252591</v>
+        <v>2.688996118881437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="673">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B36" t="n" s="674">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="673">
-        <v>4.0</v>
-      </c>
-      <c r="B37" t="n" s="674">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="673">
-        <v>2.0</v>
-      </c>
-      <c r="B38" t="n" s="674">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="673">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="674">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="673">
-        <v>1.0</v>
-      </c>
-      <c r="B40" t="n" s="674">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B41" t="n" s="674">
-        <v>0.44052628594143495</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="673">
-        <v>4.0</v>
-      </c>
-      <c r="B42" t="n" s="674">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="673">
-        <v>5.0</v>
-      </c>
-      <c r="B43" t="n" s="674">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B44" t="n" s="674">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="673">
-        <v>9.0</v>
-      </c>
-      <c r="B45" t="n" s="674">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="678">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="692">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s" s="692">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s" s="692">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s" s="692">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s" s="692">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s" s="692">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s" s="692">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s" s="692">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="693">
-        <v>10171.0</v>
-      </c>
-      <c r="B50" t="n" s="694">
-        <v>698531.0</v>
-      </c>
-      <c r="C50" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="696">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F50" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G50" t="n" s="699">
-        <v>6.0</v>
-      </c>
-      <c r="H50" t="n" s="700">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="693">
-        <v>10172.0</v>
-      </c>
-      <c r="B51" t="n" s="694">
-        <v>1.0273971E7</v>
-      </c>
-      <c r="C51" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="696">
-        <v>28</v>
-      </c>
-      <c r="E51" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G51" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H51" t="n" s="700">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="693">
-        <v>10184.0</v>
-      </c>
-      <c r="B52" t="n" s="694">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C52" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s" s="696">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F52" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G52" t="n" s="699">
-        <v>9.0</v>
-      </c>
-      <c r="H52" t="n" s="700">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="693">
-        <v>10185.0</v>
-      </c>
-      <c r="B53" t="n" s="694">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C53" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="696">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G53" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H53" t="n" s="700">
-        <v>-0.8071144506354303</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="693">
-        <v>10188.0</v>
-      </c>
-      <c r="B54" t="n" s="694">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C54" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="696">
-        <v>25</v>
-      </c>
-      <c r="E54" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G54" t="n" s="699">
-        <v>6.0</v>
-      </c>
-      <c r="H54" t="n" s="700">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="693">
-        <v>10193.0</v>
-      </c>
-      <c r="B55" t="n" s="694">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C55" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D55" t="s" s="696">
-        <v>39</v>
-      </c>
-      <c r="E55" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G55" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H55" t="n" s="700">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="693">
-        <v>10197.0</v>
-      </c>
-      <c r="B56" t="n" s="694">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C56" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D56" t="s" s="696">
-        <v>40</v>
-      </c>
-      <c r="E56" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G56" t="n" s="699">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="700">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="693">
-        <v>10201.0</v>
-      </c>
-      <c r="B57" t="n" s="694">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C57" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D57" t="s" s="696">
-        <v>41</v>
-      </c>
-      <c r="E57" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F57" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G57" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H57" t="n" s="700">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="693">
-        <v>10204.0</v>
-      </c>
-      <c r="B58" t="n" s="694">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C58" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D58" t="s" s="696">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G58" t="n" s="699">
-        <v>4.0</v>
-      </c>
-      <c r="H58" t="n" s="700">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="693">
-        <v>10206.0</v>
-      </c>
-      <c r="B59" t="n" s="694">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C59" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D59" t="s" s="696">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F59" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G59" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="700">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="693">
-        <v>10208.0</v>
-      </c>
-      <c r="B60" t="n" s="694">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C60" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="696">
-        <v>24</v>
-      </c>
-      <c r="E60" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F60" t="s" s="698">
-        <v>32</v>
-      </c>
-      <c r="G60" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H60" t="n" s="700">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="693">
-        <v>10211.0</v>
-      </c>
-      <c r="B61" t="n" s="694">
-        <v>9311643.0</v>
-      </c>
-      <c r="C61" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="696">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F61" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G61" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H61" t="n" s="700">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="693">
-        <v>10213.0</v>
-      </c>
-      <c r="B62" t="n" s="694">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C62" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s" s="696">
-        <v>43</v>
-      </c>
-      <c r="E62" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G62" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H62" t="n" s="700">
-        <v>0.44052628594143495</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="693">
-        <v>10216.0</v>
-      </c>
-      <c r="B63" t="n" s="694">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C63" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s" s="696">
-        <v>27</v>
-      </c>
-      <c r="E63" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F63" t="s" s="698">
-        <v>32</v>
-      </c>
-      <c r="G63" t="n" s="699">
-        <v>4.0</v>
-      </c>
-      <c r="H63" t="n" s="700">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="693">
-        <v>10217.0</v>
-      </c>
-      <c r="B64" t="n" s="694">
-        <v>9805341.0</v>
-      </c>
-      <c r="C64" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s" s="696">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F64" t="s" s="698">
-        <v>32</v>
-      </c>
-      <c r="G64" t="n" s="699">
-        <v>5.0</v>
-      </c>
-      <c r="H64" t="n" s="700">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n" s="693">
-        <v>10223.0</v>
-      </c>
-      <c r="B65" t="n" s="694">
-        <v>9795185.0</v>
-      </c>
-      <c r="C65" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s" s="696">
-        <v>54</v>
-      </c>
-      <c r="E65" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F65" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G65" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H65" t="n" s="700">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="693">
-        <v>10231.0</v>
-      </c>
-      <c r="B66" t="n" s="694">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C66" t="s" s="695">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s" s="696">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F66" t="s" s="698">
-        <v>45</v>
-      </c>
-      <c r="G66" t="n" s="699">
-        <v>9.0</v>
-      </c>
-      <c r="H66" t="n" s="700">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="702">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="716">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s" s="730">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="730">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="726">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n" s="731">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n" s="732">
-        <v>0.5915074010555535</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="726">
-        <v>48</v>
-      </c>
-      <c r="B7" t="n" s="731">
-        <v>0.5915074010555535</v>
-      </c>
-      <c r="C7" t="n" s="732">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="736">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s" s="750">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s" s="750">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="746">
-        <v>3</v>
-      </c>
-      <c r="B12" t="e" s="751">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" t="n" s="752">
-        <v>1.7969640167240142</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="746">
-        <v>48</v>
-      </c>
-      <c r="B13" t="n" s="751">
-        <v>1.7969640167240142</v>
-      </c>
-      <c r="C13" t="e" s="752">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="756">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17" t="s" s="770">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s" s="770">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="766">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n" s="771">
-        <v>0.0</v>
-      </c>
-      <c r="C18" t="n" s="772">
-        <v>0.12246623030701631</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="766">
-        <v>48</v>
-      </c>
-      <c r="B19" t="n" s="771">
-        <v>0.12246623030701631</v>
-      </c>
-      <c r="C19" t="n" s="772">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="776">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s" s="790">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s" s="790">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s" s="790">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s" s="790">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="786">
-        <v>58</v>
-      </c>
-      <c r="B24" t="n" s="791">
-        <v>-0.19404880539045047</v>
-      </c>
-      <c r="C24" t="n" s="792">
-        <v>0.5915074010555535</v>
-      </c>
-      <c r="D24" t="n" s="793">
-        <v>0.9148522842348755</v>
-      </c>
-      <c r="E24" t="n" s="794">
-        <v>0.12246623030701631</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="798">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="812">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s" s="812">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="813">
-        <v>6.0</v>
-      </c>
-      <c r="B29" t="n" s="814">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="813">
-        <v>2.0</v>
-      </c>
-      <c r="B30" t="n" s="814">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B31" t="n" s="814">
-        <v>-0.8071144506354303</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="813">
-        <v>6.0</v>
-      </c>
-      <c r="B32" t="n" s="814">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="813">
-        <v>2.0</v>
-      </c>
-      <c r="B33" t="n" s="814">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B34" t="n" s="814">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="813">
-        <v>4.0</v>
-      </c>
-      <c r="B35" t="n" s="814">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="813">
-        <v>5.0</v>
-      </c>
-      <c r="B36" t="n" s="814">
         <v>0.7357406959794577</v>
       </c>
     </row>
@@ -7628,241 +6233,241 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="818">
-        <v>63</v>
+      <c r="A39" t="s" s="678">
+        <v>62</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="832">
+      <c r="A40" t="s" s="692">
         <v>15</v>
       </c>
-      <c r="B40" t="s" s="832">
+      <c r="B40" t="s" s="692">
         <v>16</v>
       </c>
-      <c r="C40" t="s" s="832">
+      <c r="C40" t="s" s="692">
         <v>17</v>
       </c>
-      <c r="D40" t="s" s="832">
+      <c r="D40" t="s" s="692">
         <v>18</v>
       </c>
-      <c r="E40" t="s" s="832">
+      <c r="E40" t="s" s="692">
         <v>19</v>
       </c>
-      <c r="F40" t="s" s="832">
+      <c r="F40" t="s" s="692">
         <v>20</v>
       </c>
-      <c r="G40" t="s" s="832">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s" s="832">
+      <c r="G40" t="s" s="692">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s" s="692">
         <v>48</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="833">
+      <c r="A41" t="n" s="693">
         <v>10171.0</v>
       </c>
-      <c r="B41" t="n" s="834">
+      <c r="B41" t="n" s="694">
         <v>698531.0</v>
       </c>
-      <c r="C41" t="s" s="835">
+      <c r="C41" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D41" t="s" s="836">
+      <c r="D41" t="s" s="696">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H41" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="693">
+        <v>10172.0</v>
+      </c>
+      <c r="B42" t="n" s="694">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C42" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="696">
         <v>26</v>
       </c>
-      <c r="E41" t="s" s="837">
+      <c r="E42" t="s" s="697">
         <v>44</v>
       </c>
-      <c r="F41" t="s" s="838">
+      <c r="F42" t="s" s="698">
         <v>31</v>
       </c>
-      <c r="G41" t="n" s="839">
+      <c r="G42" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H42" t="n" s="700">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="693">
+        <v>10185.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C43" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="696">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10188.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="699">
         <v>6.0</v>
       </c>
-      <c r="H41" t="n" s="840">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="833">
-        <v>10172.0</v>
-      </c>
-      <c r="B42" t="n" s="834">
-        <v>1.0273971E7</v>
-      </c>
-      <c r="C42" t="s" s="835">
+      <c r="H44" t="n" s="700">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="693">
+        <v>10208.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D42" t="s" s="836">
+      <c r="D45" t="s" s="696">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G45" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="693">
+        <v>10211.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>9311643.0</v>
+      </c>
+      <c r="C46" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="696">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="693">
+        <v>10216.0</v>
+      </c>
+      <c r="B47" t="n" s="694">
+        <v>1.027672E7</v>
+      </c>
+      <c r="C47" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="696">
         <v>28</v>
       </c>
-      <c r="E42" t="s" s="837">
+      <c r="E47" t="s" s="697">
         <v>44</v>
       </c>
-      <c r="F42" t="s" s="838">
-        <v>31</v>
-      </c>
-      <c r="G42" t="n" s="839">
-        <v>2.0</v>
-      </c>
-      <c r="H42" t="n" s="840">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="833">
-        <v>10185.0</v>
-      </c>
-      <c r="B43" t="n" s="834">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C43" t="s" s="835">
+      <c r="F47" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G47" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H47" t="n" s="700">
+        <v>2.688996118881437</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="693">
+        <v>10217.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>9805341.0</v>
+      </c>
+      <c r="C48" t="s" s="695">
         <v>21</v>
       </c>
-      <c r="D43" t="s" s="836">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s" s="837">
+      <c r="D48" t="s" s="696">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s" s="697">
         <v>44</v>
       </c>
-      <c r="F43" t="s" s="838">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H43" t="n" s="840">
-        <v>-0.8071144506354303</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="833">
-        <v>10188.0</v>
-      </c>
-      <c r="B44" t="n" s="834">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C44" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="836">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s" s="837">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s" s="838">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n" s="839">
-        <v>6.0</v>
-      </c>
-      <c r="H44" t="n" s="840">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="833">
-        <v>10208.0</v>
-      </c>
-      <c r="B45" t="n" s="834">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C45" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="836">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s" s="837">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s" s="838">
+      <c r="F48" t="s" s="698">
         <v>32</v>
       </c>
-      <c r="G45" t="n" s="839">
-        <v>2.0</v>
-      </c>
-      <c r="H45" t="n" s="840">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="833">
-        <v>10211.0</v>
-      </c>
-      <c r="B46" t="n" s="834">
-        <v>9311643.0</v>
-      </c>
-      <c r="C46" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="836">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s" s="837">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s" s="838">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H46" t="n" s="840">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="833">
-        <v>10216.0</v>
-      </c>
-      <c r="B47" t="n" s="834">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C47" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="836">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s" s="837">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s" s="838">
-        <v>32</v>
-      </c>
-      <c r="G47" t="n" s="839">
-        <v>4.0</v>
-      </c>
-      <c r="H47" t="n" s="840">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="833">
-        <v>10217.0</v>
-      </c>
-      <c r="B48" t="n" s="834">
-        <v>9805341.0</v>
-      </c>
-      <c r="C48" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="836">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s" s="837">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s" s="838">
-        <v>32</v>
-      </c>
-      <c r="G48" t="n" s="839">
+      <c r="G48" t="n" s="699">
         <v>5.0</v>
       </c>
-      <c r="H48" t="n" s="840">
+      <c r="H48" t="n" s="700">
         <v>0.7357406959794577</v>
       </c>
     </row>

--- a/exp2/case02/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case02/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
@@ -8,15 +8,17 @@
   <sheets>
     <sheet name="moderate_spearman_44" r:id="rId3" sheetId="1"/>
     <sheet name="moderate_spearman_70" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_spearman_88" r:id="rId5" sheetId="3"/>
-    <sheet name="moderate_spearman_104" r:id="rId6" sheetId="4"/>
-    <sheet name="moderate_spearman_108" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_spearman_86" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_88" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_95" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_spearman_99" r:id="rId8" sheetId="6"/>
+    <sheet name="moderate_spearman_108" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="71">
   <si>
     <t>Correlation information for DiffTheta - Attention in ont-gamified.Apprentice using the method: spearman</t>
   </si>
@@ -156,7 +158,7 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for NroTotalInteractions - Satisfaction in Master using the method: spearman</t>
   </si>
   <si>
     <t>NroTotalInteractions</t>
@@ -168,10 +170,10 @@
     <t>NrTtI-Stsfc</t>
   </si>
   <si>
-    <t>Data source for NroTotalInteractions - Satisfaction in non-gamified.Master</t>
+    <t>Data source for NroTotalInteractions - Satisfaction in Master</t>
   </si>
   <si>
-    <t>Data full source for NroTotalInteractions - Satisfaction in non-gamified.Master</t>
+    <t>Data full source for NroTotalInteractions - Satisfaction in Master</t>
   </si>
   <si>
     <t>Grupo Team 7</t>
@@ -186,19 +188,43 @@
     <t>Grupo Team 4</t>
   </si>
   <si>
-    <t>Correlation information for NroDesiredInteractions - Satisfaction in Master using the method: spearman</t>
+    <t>Correlation information for NroTotalInteractions - Satisfaction in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for NroTotalInteractions - Satisfaction in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroTotalInteractions - Satisfaction in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for NroNecessaryInteractions - Satisfaction in Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>NroNecessaryInteractions</t>
+  </si>
+  <si>
+    <t>NrNcI-Stsfc</t>
+  </si>
+  <si>
+    <t>Data source for NroNecessaryInteractions - Satisfaction in Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroNecessaryInteractions - Satisfaction in Master</t>
+  </si>
+  <si>
+    <t>Correlation information for NroNecessaryInteractions - Satisfaction in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for NroNecessaryInteractions - Satisfaction in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroNecessaryInteractions - Satisfaction in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for NroDesiredInteractions - Satisfaction in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>NrDsI-Stsfc</t>
-  </si>
-  <si>
-    <t>Data source for NroDesiredInteractions - Satisfaction in Master</t>
-  </si>
-  <si>
-    <t>Data full source for NroDesiredInteractions - Satisfaction in Master</t>
-  </si>
-  <si>
-    <t>Correlation information for NroDesiredInteractions - Satisfaction in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Data source for NroDesiredInteractions - Satisfaction in ont-gamified.Master</t>
@@ -212,13 +238,959 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="371">
+  <fonts count="519">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2628,7 +3600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="701">
+  <cellXfs count="981">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3450,6 +4422,334 @@
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4542,7 +5842,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>0.690677966101695</v>
+        <v>0.6014952171822548</v>
       </c>
     </row>
     <row r="7">
@@ -4550,10 +5850,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>0.690677966101695</v>
+        <v>0.6014952171822548</v>
       </c>
       <c r="C7" t="n" s="312">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4588,7 +5888,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>2.5269040210793876</v>
+        <v>2.817193022989003</v>
       </c>
     </row>
     <row r="13">
@@ -4596,10 +5896,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>2.5269040210793876</v>
-      </c>
-      <c r="C13" t="e" s="332">
-        <v>#DIV/0!</v>
+        <v>2.817193022989003</v>
+      </c>
+      <c r="C13" t="n" s="332">
+        <v>2.510983767036078E8</v>
       </c>
     </row>
     <row r="14">
@@ -4634,7 +5934,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.0394108366811885</v>
+        <v>0.013708318945782949</v>
       </c>
     </row>
     <row r="19">
@@ -4642,7 +5942,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.0394108366811885</v>
+        <v>0.013708318945782949</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -4683,16 +5983,16 @@
         <v>49</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>0.04905962520627532</v>
+        <v>0.15073314192215748</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>0.690677966101695</v>
+        <v>0.6014952171822548</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.9287756444936716</v>
+        <v>0.8451938442205648</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.0394108366811885</v>
+        <v>0.013708318945782949</v>
       </c>
     </row>
     <row r="25">
@@ -4720,348 +6020,586 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>1.0956641887062895</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>-1.5892360279087838</v>
+        <v>-0.07604771059156659</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>-0.5710388437252591</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>0.7357406959794577</v>
+        <v>-0.8071144506354303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>1.0956641887062895</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.07604771059156659</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>0.44052628594143495</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="393">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B36" t="n" s="394">
-        <v>-1.5892360279087838</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="393">
+        <v>9.0</v>
+      </c>
+      <c r="B37" t="n" s="394">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="393">
+        <v>10.0</v>
+      </c>
+      <c r="B38" t="n" s="394">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="393">
+        <v>13.0</v>
+      </c>
+      <c r="B39" t="n" s="394">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="393">
+        <v>6.0</v>
+      </c>
+      <c r="B40" t="n" s="394">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="393">
+        <v>6.0</v>
+      </c>
+      <c r="B41" t="n" s="394">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="393">
+        <v>11.0</v>
+      </c>
+      <c r="B42" t="n" s="394">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="393">
+        <v>5.0</v>
+      </c>
+      <c r="B43" t="n" s="394">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="393">
         <v>14.0</v>
       </c>
-      <c r="B37" t="n" s="394">
+      <c r="B44" t="n" s="394">
         <v>-0.3246338035754202</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="46">
+      <c r="A46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="398">
+    <row r="47">
+      <c r="A47" t="s" s="398">
         <v>51</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="412">
+    <row r="48">
+      <c r="A48" t="s" s="412">
         <v>15</v>
       </c>
-      <c r="B41" t="s" s="412">
+      <c r="B48" t="s" s="412">
         <v>16</v>
       </c>
-      <c r="C41" t="s" s="412">
+      <c r="C48" t="s" s="412">
         <v>17</v>
       </c>
-      <c r="D41" t="s" s="412">
+      <c r="D48" t="s" s="412">
         <v>18</v>
       </c>
-      <c r="E41" t="s" s="412">
+      <c r="E48" t="s" s="412">
         <v>19</v>
       </c>
-      <c r="F41" t="s" s="412">
+      <c r="F48" t="s" s="412">
         <v>20</v>
       </c>
-      <c r="G41" t="s" s="412">
+      <c r="G48" t="s" s="412">
         <v>47</v>
       </c>
-      <c r="H41" t="s" s="412">
+      <c r="H48" t="s" s="412">
         <v>48</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="413">
-        <v>10184.0</v>
-      </c>
-      <c r="B42" t="n" s="414">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C42" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s" s="416">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G42" t="n" s="419">
-        <v>16.0</v>
-      </c>
-      <c r="H42" t="n" s="420">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="413">
-        <v>10193.0</v>
-      </c>
-      <c r="B43" t="n" s="414">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C43" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s" s="416">
-        <v>39</v>
-      </c>
-      <c r="E43" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G43" t="n" s="419">
-        <v>4.0</v>
-      </c>
-      <c r="H43" t="n" s="420">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="413">
-        <v>10197.0</v>
-      </c>
-      <c r="B44" t="n" s="414">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C44" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s" s="416">
-        <v>40</v>
-      </c>
-      <c r="E44" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G44" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H44" t="n" s="420">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="413">
-        <v>10201.0</v>
-      </c>
-      <c r="B45" t="n" s="414">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C45" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s" s="416">
-        <v>41</v>
-      </c>
-      <c r="E45" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G45" t="n" s="419">
-        <v>6.0</v>
-      </c>
-      <c r="H45" t="n" s="420">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="413">
-        <v>10204.0</v>
-      </c>
-      <c r="B46" t="n" s="414">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C46" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s" s="416">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G46" t="n" s="419">
-        <v>9.0</v>
-      </c>
-      <c r="H46" t="n" s="420">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="413">
-        <v>10206.0</v>
-      </c>
-      <c r="B47" t="n" s="414">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C47" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s" s="416">
-        <v>42</v>
-      </c>
-      <c r="E47" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G47" t="n" s="419">
-        <v>10.0</v>
-      </c>
-      <c r="H47" t="n" s="420">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="413">
-        <v>10213.0</v>
-      </c>
-      <c r="B48" t="n" s="414">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C48" t="s" s="415">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s" s="416">
-        <v>43</v>
-      </c>
-      <c r="E48" t="s" s="417">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s" s="418">
-        <v>45</v>
-      </c>
-      <c r="G48" t="n" s="419">
-        <v>6.0</v>
-      </c>
-      <c r="H48" t="n" s="420">
-        <v>0.44052628594143495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="413">
-        <v>10223.0</v>
+        <v>10171.0</v>
       </c>
       <c r="B49" t="n" s="414">
-        <v>9795185.0</v>
+        <v>698531.0</v>
       </c>
       <c r="C49" t="s" s="415">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s" s="416">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s" s="417">
         <v>44</v>
       </c>
       <c r="F49" t="s" s="418">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n" s="419">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="H49" t="n" s="420">
-        <v>-1.5892360279087838</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="413">
-        <v>10231.0</v>
+        <v>10172.0</v>
       </c>
       <c r="B50" t="n" s="414">
-        <v>1.0276911E7</v>
+        <v>1.0273971E7</v>
       </c>
       <c r="C50" t="s" s="415">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s" s="416">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s" s="417">
         <v>44</v>
       </c>
       <c r="F50" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="419">
+        <v>7.0</v>
+      </c>
+      <c r="H50" t="n" s="420">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="413">
+        <v>10184.0</v>
+      </c>
+      <c r="B51" t="n" s="414">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C51" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s" s="416">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s" s="418">
         <v>45</v>
       </c>
-      <c r="G50" t="n" s="419">
+      <c r="G51" t="n" s="419">
+        <v>16.0</v>
+      </c>
+      <c r="H51" t="n" s="420">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="413">
+        <v>10185.0</v>
+      </c>
+      <c r="B52" t="n" s="414">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C52" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="416">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G52" t="n" s="419">
+        <v>4.0</v>
+      </c>
+      <c r="H52" t="n" s="420">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="413">
+        <v>10188.0</v>
+      </c>
+      <c r="B53" t="n" s="414">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C53" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G53" t="n" s="419">
+        <v>10.0</v>
+      </c>
+      <c r="H53" t="n" s="420">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="413">
+        <v>10193.0</v>
+      </c>
+      <c r="B54" t="n" s="414">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C54" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G54" t="n" s="419">
+        <v>4.0</v>
+      </c>
+      <c r="H54" t="n" s="420">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="413">
+        <v>10197.0</v>
+      </c>
+      <c r="B55" t="n" s="414">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C55" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="416">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G55" t="n" s="419">
+        <v>5.0</v>
+      </c>
+      <c r="H55" t="n" s="420">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="413">
+        <v>10201.0</v>
+      </c>
+      <c r="B56" t="n" s="414">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C56" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="416">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G56" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H56" t="n" s="420">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="413">
+        <v>10204.0</v>
+      </c>
+      <c r="B57" t="n" s="414">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C57" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="416">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G57" t="n" s="419">
+        <v>9.0</v>
+      </c>
+      <c r="H57" t="n" s="420">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="413">
+        <v>10206.0</v>
+      </c>
+      <c r="B58" t="n" s="414">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C58" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s" s="416">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G58" t="n" s="419">
+        <v>10.0</v>
+      </c>
+      <c r="H58" t="n" s="420">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="413">
+        <v>10208.0</v>
+      </c>
+      <c r="B59" t="n" s="414">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C59" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="416">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G59" t="n" s="419">
+        <v>13.0</v>
+      </c>
+      <c r="H59" t="n" s="420">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="413">
+        <v>10211.0</v>
+      </c>
+      <c r="B60" t="n" s="414">
+        <v>9311643.0</v>
+      </c>
+      <c r="C60" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="416">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G60" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H60" t="n" s="420">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="413">
+        <v>10213.0</v>
+      </c>
+      <c r="B61" t="n" s="414">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C61" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s" s="416">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G61" t="n" s="419">
+        <v>6.0</v>
+      </c>
+      <c r="H61" t="n" s="420">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="413">
+        <v>10217.0</v>
+      </c>
+      <c r="B62" t="n" s="414">
+        <v>9805341.0</v>
+      </c>
+      <c r="C62" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="416">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s" s="418">
+        <v>32</v>
+      </c>
+      <c r="G62" t="n" s="419">
+        <v>11.0</v>
+      </c>
+      <c r="H62" t="n" s="420">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="413">
+        <v>10223.0</v>
+      </c>
+      <c r="B63" t="n" s="414">
+        <v>9795185.0</v>
+      </c>
+      <c r="C63" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s" s="416">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G63" t="n" s="419">
+        <v>5.0</v>
+      </c>
+      <c r="H63" t="n" s="420">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="413">
+        <v>10231.0</v>
+      </c>
+      <c r="B64" t="n" s="414">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C64" t="s" s="415">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="416">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s" s="417">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s" s="418">
+        <v>45</v>
+      </c>
+      <c r="G64" t="n" s="419">
         <v>14.0</v>
       </c>
-      <c r="H50" t="n" s="420">
+      <c r="H64" t="n" s="420">
         <v>-0.3246338035754202</v>
       </c>
     </row>
@@ -5112,7 +6650,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="450">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="450">
         <v>48</v>
@@ -5120,13 +6658,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="446">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B6" t="n" s="451">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>0.5003300984052713</v>
+        <v>0.690677966101695</v>
       </c>
     </row>
     <row r="7">
@@ -5134,10 +6672,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>0.5003300984052713</v>
+        <v>0.690677966101695</v>
       </c>
       <c r="C7" t="n" s="452">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -5158,7 +6696,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="470">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="470">
         <v>48</v>
@@ -5166,13 +6704,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="466">
-        <v>34</v>
-      </c>
-      <c r="B12" t="n" s="471">
-        <v>2.5991151265489843E8</v>
+        <v>47</v>
+      </c>
+      <c r="B12" t="e" s="471">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>2.2380369542186345</v>
+        <v>2.5269040210793876</v>
       </c>
     </row>
     <row r="13">
@@ -5180,10 +6718,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>2.2380369542186345</v>
-      </c>
-      <c r="C13" t="n" s="472">
-        <v>2.5991151265489843E8</v>
+        <v>2.5269040210793876</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -5204,7 +6742,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="490">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="490">
         <v>48</v>
@@ -5212,13 +6750,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="486">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B18" t="n" s="491">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.04081454677626839</v>
+        <v>0.0394108366811885</v>
       </c>
     </row>
     <row r="19">
@@ -5226,7 +6764,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.04081454677626839</v>
+        <v>0.0394108366811885</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>0.0</v>
@@ -5264,19 +6802,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>0.02591815798111985</v>
+        <v>0.04905962520627532</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>0.5003300984052713</v>
+        <v>0.690677966101695</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.7908019795546152</v>
+        <v>0.9287756444936716</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.04081454677626839</v>
+        <v>0.0394108366811885</v>
       </c>
     </row>
     <row r="25">
@@ -5291,12 +6829,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="532">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s" s="532">
         <v>48</v>
@@ -5304,620 +6842,348 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>0.7357406959794577</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>-0.07604771059156659</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>1.0956641887062895</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>-0.8071144506354303</v>
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>-0.5710388437252591</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="B34" t="n" s="534">
-        <v>-1.5892360279087838</v>
+        <v>-0.07604771059156659</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="533">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B35" t="n" s="534">
-        <v>-0.5710388437252591</v>
+        <v>0.44052628594143495</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="533">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B36" t="n" s="534">
-        <v>0.7357406959794577</v>
+        <v>-1.5892360279087838</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="533">
+        <v>14.0</v>
+      </c>
+      <c r="B37" t="n" s="534">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="538">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="552">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s" s="552">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="553">
+        <v>10184.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>16.0</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="553">
+        <v>10193.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G43" t="n" s="559">
         <v>4.0</v>
       </c>
-      <c r="B37" t="n" s="534">
+      <c r="H43" t="n" s="560">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="553">
+        <v>10197.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>5.0</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="553">
+        <v>10201.0</v>
+      </c>
+      <c r="B45" t="n" s="554">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C45" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s" s="556">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G45" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H45" t="n" s="560">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="553">
+        <v>10204.0</v>
+      </c>
+      <c r="B46" t="n" s="554">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C46" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s" s="556">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G46" t="n" s="559">
+        <v>9.0</v>
+      </c>
+      <c r="H46" t="n" s="560">
         <v>1.0956641887062895</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n" s="533">
-        <v>2.0</v>
-      </c>
-      <c r="B38" t="n" s="534">
+    <row r="47">
+      <c r="A47" t="n" s="553">
+        <v>10206.0</v>
+      </c>
+      <c r="B47" t="n" s="554">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C47" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s" s="556">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G47" t="n" s="559">
+        <v>10.0</v>
+      </c>
+      <c r="H47" t="n" s="560">
         <v>-0.07604771059156659</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n" s="533">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="534">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="533">
-        <v>1.0</v>
-      </c>
-      <c r="B40" t="n" s="534">
+    <row r="48">
+      <c r="A48" t="n" s="553">
+        <v>10213.0</v>
+      </c>
+      <c r="B48" t="n" s="554">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C48" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s" s="556">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G48" t="n" s="559">
+        <v>6.0</v>
+      </c>
+      <c r="H48" t="n" s="560">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="553">
+        <v>10223.0</v>
+      </c>
+      <c r="B49" t="n" s="554">
+        <v>9795185.0</v>
+      </c>
+      <c r="C49" t="s" s="555">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s" s="556">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s" s="557">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s" s="558">
+        <v>45</v>
+      </c>
+      <c r="G49" t="n" s="559">
+        <v>5.0</v>
+      </c>
+      <c r="H49" t="n" s="560">
         <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="533">
-        <v>0.0</v>
-      </c>
-      <c r="B41" t="n" s="534">
-        <v>0.44052628594143495</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="533">
-        <v>4.0</v>
-      </c>
-      <c r="B42" t="n" s="534">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="533">
-        <v>5.0</v>
-      </c>
-      <c r="B43" t="n" s="534">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="533">
-        <v>0.0</v>
-      </c>
-      <c r="B44" t="n" s="534">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="533">
-        <v>9.0</v>
-      </c>
-      <c r="B45" t="n" s="534">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="538">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="552">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s" s="552">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s" s="552">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s" s="552">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s" s="552">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s" s="552">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s" s="552">
-        <v>34</v>
-      </c>
-      <c r="H49" t="s" s="552">
-        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="553">
-        <v>10171.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B50" t="n" s="554">
-        <v>698531.0</v>
+        <v>1.0276911E7</v>
       </c>
       <c r="C50" t="s" s="555">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s" s="556">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s" s="557">
         <v>44</v>
       </c>
       <c r="F50" t="s" s="558">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G50" t="n" s="559">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="H50" t="n" s="560">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="553">
-        <v>10172.0</v>
-      </c>
-      <c r="B51" t="n" s="554">
-        <v>1.0273971E7</v>
-      </c>
-      <c r="C51" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="556">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s" s="558">
-        <v>31</v>
-      </c>
-      <c r="G51" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H51" t="n" s="560">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="553">
-        <v>10184.0</v>
-      </c>
-      <c r="B52" t="n" s="554">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C52" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s" s="556">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F52" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G52" t="n" s="559">
-        <v>9.0</v>
-      </c>
-      <c r="H52" t="n" s="560">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="553">
-        <v>10185.0</v>
-      </c>
-      <c r="B53" t="n" s="554">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C53" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="556">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s" s="558">
-        <v>31</v>
-      </c>
-      <c r="G53" t="n" s="559">
-        <v>1.0</v>
-      </c>
-      <c r="H53" t="n" s="560">
-        <v>-0.8071144506354303</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="553">
-        <v>10188.0</v>
-      </c>
-      <c r="B54" t="n" s="554">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C54" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="556">
-        <v>24</v>
-      </c>
-      <c r="E54" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s" s="558">
-        <v>31</v>
-      </c>
-      <c r="G54" t="n" s="559">
-        <v>6.0</v>
-      </c>
-      <c r="H54" t="n" s="560">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="553">
-        <v>10193.0</v>
-      </c>
-      <c r="B55" t="n" s="554">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C55" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D55" t="s" s="556">
-        <v>39</v>
-      </c>
-      <c r="E55" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G55" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H55" t="n" s="560">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="553">
-        <v>10197.0</v>
-      </c>
-      <c r="B56" t="n" s="554">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C56" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D56" t="s" s="556">
-        <v>40</v>
-      </c>
-      <c r="E56" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G56" t="n" s="559">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="560">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="553">
-        <v>10201.0</v>
-      </c>
-      <c r="B57" t="n" s="554">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C57" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D57" t="s" s="556">
-        <v>41</v>
-      </c>
-      <c r="E57" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F57" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G57" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H57" t="n" s="560">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="553">
-        <v>10204.0</v>
-      </c>
-      <c r="B58" t="n" s="554">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C58" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D58" t="s" s="556">
-        <v>53</v>
-      </c>
-      <c r="E58" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G58" t="n" s="559">
-        <v>4.0</v>
-      </c>
-      <c r="H58" t="n" s="560">
-        <v>1.0956641887062895</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="553">
-        <v>10206.0</v>
-      </c>
-      <c r="B59" t="n" s="554">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C59" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D59" t="s" s="556">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F59" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G59" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="560">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="553">
-        <v>10208.0</v>
-      </c>
-      <c r="B60" t="n" s="554">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C60" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="556">
-        <v>27</v>
-      </c>
-      <c r="E60" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F60" t="s" s="558">
-        <v>32</v>
-      </c>
-      <c r="G60" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H60" t="n" s="560">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="553">
-        <v>10211.0</v>
-      </c>
-      <c r="B61" t="n" s="554">
-        <v>9311643.0</v>
-      </c>
-      <c r="C61" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="556">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F61" t="s" s="558">
-        <v>31</v>
-      </c>
-      <c r="G61" t="n" s="559">
-        <v>1.0</v>
-      </c>
-      <c r="H61" t="n" s="560">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="553">
-        <v>10213.0</v>
-      </c>
-      <c r="B62" t="n" s="554">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C62" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s" s="556">
-        <v>43</v>
-      </c>
-      <c r="E62" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G62" t="n" s="559">
-        <v>0.0</v>
-      </c>
-      <c r="H62" t="n" s="560">
-        <v>0.44052628594143495</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="553">
-        <v>10216.0</v>
-      </c>
-      <c r="B63" t="n" s="554">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C63" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s" s="556">
-        <v>28</v>
-      </c>
-      <c r="E63" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F63" t="s" s="558">
-        <v>32</v>
-      </c>
-      <c r="G63" t="n" s="559">
-        <v>4.0</v>
-      </c>
-      <c r="H63" t="n" s="560">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="553">
-        <v>10217.0</v>
-      </c>
-      <c r="B64" t="n" s="554">
-        <v>9805341.0</v>
-      </c>
-      <c r="C64" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s" s="556">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F64" t="s" s="558">
-        <v>32</v>
-      </c>
-      <c r="G64" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H64" t="n" s="560">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n" s="553">
-        <v>10223.0</v>
-      </c>
-      <c r="B65" t="n" s="554">
-        <v>9795185.0</v>
-      </c>
-      <c r="C65" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D65" t="s" s="556">
-        <v>54</v>
-      </c>
-      <c r="E65" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F65" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G65" t="n" s="559">
-        <v>0.0</v>
-      </c>
-      <c r="H65" t="n" s="560">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="553">
-        <v>10231.0</v>
-      </c>
-      <c r="B66" t="n" s="554">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C66" t="s" s="555">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s" s="556">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s" s="557">
-        <v>44</v>
-      </c>
-      <c r="F66" t="s" s="558">
-        <v>45</v>
-      </c>
-      <c r="G66" t="n" s="559">
-        <v>9.0</v>
-      </c>
-      <c r="H66" t="n" s="560">
         <v>-0.3246338035754202</v>
       </c>
     </row>
@@ -5947,7 +7213,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="562">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -5968,7 +7234,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="590">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s" s="590">
         <v>48</v>
@@ -5976,13 +7242,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="586">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n" s="591">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="592">
-        <v>0.5915074010555535</v>
+        <v>0.5007758558029941</v>
       </c>
     </row>
     <row r="7">
@@ -5990,10 +7256,10 @@
         <v>48</v>
       </c>
       <c r="B7" t="n" s="591">
-        <v>0.5915074010555535</v>
+        <v>0.5007758558029941</v>
       </c>
       <c r="C7" t="n" s="592">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6014,7 +7280,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="610">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s" s="610">
         <v>48</v>
@@ -6022,13 +7288,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="606">
-        <v>34</v>
-      </c>
-      <c r="B12" t="e" s="611">
-        <v>#DIV/0!</v>
+        <v>60</v>
+      </c>
+      <c r="B12" t="n" s="611">
+        <v>2.510983767036078E8</v>
       </c>
       <c r="C12" t="n" s="612">
-        <v>1.7969640167240142</v>
+        <v>2.164719812147156</v>
       </c>
     </row>
     <row r="13">
@@ -6036,10 +7302,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="n" s="611">
-        <v>1.7969640167240142</v>
-      </c>
-      <c r="C13" t="e" s="612">
-        <v>#DIV/0!</v>
+        <v>2.164719812147156</v>
+      </c>
+      <c r="C13" t="n" s="612">
+        <v>2.510983767036078E8</v>
       </c>
     </row>
     <row r="14">
@@ -6060,7 +7326,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="630">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="630">
         <v>48</v>
@@ -6068,13 +7334,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="626">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B18" t="n" s="631">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="632">
-        <v>0.12246623030701631</v>
+        <v>0.0481765917166066</v>
       </c>
     </row>
     <row r="19">
@@ -6082,7 +7348,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="n" s="631">
-        <v>0.12246623030701631</v>
+        <v>0.0481765917166066</v>
       </c>
       <c r="C19" t="n" s="632">
         <v>0.0</v>
@@ -6120,19 +7386,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="646">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" t="n" s="651">
-        <v>-0.19404880539045047</v>
+        <v>0.0067448487599097015</v>
       </c>
       <c r="C24" t="n" s="652">
-        <v>0.5915074010555535</v>
+        <v>0.5007758558029941</v>
       </c>
       <c r="D24" t="n" s="653">
-        <v>0.9148522842348755</v>
+        <v>0.7983107194004468</v>
       </c>
       <c r="E24" t="n" s="654">
-        <v>0.12246623030701631</v>
+        <v>0.0481765917166066</v>
       </c>
     </row>
     <row r="25">
@@ -6147,12 +7413,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="658">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="672">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s" s="672">
         <v>48</v>
@@ -6160,7 +7426,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="673">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B29" t="n" s="674">
         <v>0.7357406959794577</v>
@@ -6168,7 +7434,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="673">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" t="n" s="674">
         <v>-0.07604771059156659</v>
@@ -6176,31 +7442,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="673">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B31" t="n" s="674">
-        <v>-0.8071144506354303</v>
+        <v>1.0956641887062895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="673">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B32" t="n" s="674">
-        <v>-0.5710388437252591</v>
+        <v>-0.8071144506354303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="673">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B33" t="n" s="674">
-        <v>-0.3246338035754202</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="673">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B34" t="n" s="674">
         <v>-1.5892360279087838</v>
@@ -6208,18 +7474,837 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="673">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B35" t="n" s="674">
-        <v>2.688996118881437</v>
+        <v>-0.5710388437252591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="673">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B36" t="n" s="674">
         <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="673">
+        <v>5.0</v>
+      </c>
+      <c r="B37" t="n" s="674">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="673">
+        <v>8.0</v>
+      </c>
+      <c r="B38" t="n" s="674">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="673">
+        <v>11.0</v>
+      </c>
+      <c r="B39" t="n" s="674">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="673">
+        <v>5.0</v>
+      </c>
+      <c r="B40" t="n" s="674">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="673">
+        <v>6.0</v>
+      </c>
+      <c r="B41" t="n" s="674">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="673">
+        <v>6.0</v>
+      </c>
+      <c r="B42" t="n" s="674">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="673">
+        <v>5.0</v>
+      </c>
+      <c r="B43" t="n" s="674">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="673">
+        <v>5.0</v>
+      </c>
+      <c r="B44" t="n" s="674">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="678">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s" s="692">
+        <v>60</v>
+      </c>
+      <c r="H48" t="s" s="692">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="693">
+        <v>10171.0</v>
+      </c>
+      <c r="B49" t="n" s="694">
+        <v>698531.0</v>
+      </c>
+      <c r="C49" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s" s="696">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G49" t="n" s="699">
+        <v>7.0</v>
+      </c>
+      <c r="H49" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="693">
+        <v>10172.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="693">
+        <v>10184.0</v>
+      </c>
+      <c r="B51" t="n" s="694">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C51" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s" s="696">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G51" t="n" s="699">
+        <v>7.0</v>
+      </c>
+      <c r="H51" t="n" s="700">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="693">
+        <v>10185.0</v>
+      </c>
+      <c r="B52" t="n" s="694">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C52" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s" s="696">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G52" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="n" s="700">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="693">
+        <v>10188.0</v>
+      </c>
+      <c r="B53" t="n" s="694">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C53" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="696">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G53" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H53" t="n" s="700">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="693">
+        <v>10193.0</v>
+      </c>
+      <c r="B54" t="n" s="694">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C54" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s" s="696">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G54" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="693">
+        <v>10197.0</v>
+      </c>
+      <c r="B55" t="n" s="694">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C55" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="696">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G55" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H55" t="n" s="700">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="693">
+        <v>10201.0</v>
+      </c>
+      <c r="B56" t="n" s="694">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C56" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="696">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G56" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H56" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="693">
+        <v>10204.0</v>
+      </c>
+      <c r="B57" t="n" s="694">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C57" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="696">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G57" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H57" t="n" s="700">
+        <v>1.0956641887062895</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="693">
+        <v>10206.0</v>
+      </c>
+      <c r="B58" t="n" s="694">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C58" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s" s="696">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G58" t="n" s="699">
+        <v>8.0</v>
+      </c>
+      <c r="H58" t="n" s="700">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="693">
+        <v>10208.0</v>
+      </c>
+      <c r="B59" t="n" s="694">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C59" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s" s="696">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G59" t="n" s="699">
+        <v>11.0</v>
+      </c>
+      <c r="H59" t="n" s="700">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="693">
+        <v>10211.0</v>
+      </c>
+      <c r="B60" t="n" s="694">
+        <v>9311643.0</v>
+      </c>
+      <c r="C60" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s" s="696">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s" s="698">
+        <v>31</v>
+      </c>
+      <c r="G60" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H60" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="693">
+        <v>10213.0</v>
+      </c>
+      <c r="B61" t="n" s="694">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C61" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s" s="696">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G61" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H61" t="n" s="700">
+        <v>0.44052628594143495</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="693">
+        <v>10217.0</v>
+      </c>
+      <c r="B62" t="n" s="694">
+        <v>9805341.0</v>
+      </c>
+      <c r="C62" t="s" s="695">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s" s="696">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s" s="698">
+        <v>32</v>
+      </c>
+      <c r="G62" t="n" s="699">
+        <v>6.0</v>
+      </c>
+      <c r="H62" t="n" s="700">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="693">
+        <v>10223.0</v>
+      </c>
+      <c r="B63" t="n" s="694">
+        <v>9795185.0</v>
+      </c>
+      <c r="C63" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s" s="696">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G63" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H63" t="n" s="700">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="693">
+        <v>10231.0</v>
+      </c>
+      <c r="B64" t="n" s="694">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C64" t="s" s="695">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="696">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s" s="697">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s" s="698">
+        <v>45</v>
+      </c>
+      <c r="G64" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H64" t="n" s="700">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>48</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>60</v>
+      </c>
+      <c r="B12" t="e" s="751">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>1.6770509831248428</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>48</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>1.6770509831248428</v>
+      </c>
+      <c r="C13" t="e" s="752">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>60</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.1543772504844132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>48</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.1543772504844132</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>61</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>-0.27921897940346996</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>0.9319641933166095</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.1543772504844132</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>7.0</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>5.0</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>3.0</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>4.0</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>11.0</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>5.0</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="813">
+        <v>6.0</v>
+      </c>
+      <c r="B35" t="n" s="814">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -6228,246 +8313,731 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="818">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="832">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s" s="832">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s" s="832">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="832">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s" s="832">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s" s="832">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="833">
+        <v>10171.0</v>
+      </c>
+      <c r="B40" t="n" s="834">
+        <v>698531.0</v>
+      </c>
+      <c r="C40" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="836">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G40" t="n" s="839">
+        <v>7.0</v>
+      </c>
+      <c r="H40" t="n" s="840">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="833">
+        <v>10172.0</v>
+      </c>
+      <c r="B41" t="n" s="834">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C41" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="836">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="839">
+        <v>5.0</v>
+      </c>
+      <c r="H41" t="n" s="840">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="833">
+        <v>10185.0</v>
+      </c>
+      <c r="B42" t="n" s="834">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C42" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="836">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="839">
+        <v>3.0</v>
+      </c>
+      <c r="H42" t="n" s="840">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="833">
+        <v>10188.0</v>
+      </c>
+      <c r="B43" t="n" s="834">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C43" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="836">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="839">
+        <v>4.0</v>
+      </c>
+      <c r="H43" t="n" s="840">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="833">
+        <v>10208.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="836">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="838">
+        <v>32</v>
+      </c>
+      <c r="G44" t="n" s="839">
+        <v>11.0</v>
+      </c>
+      <c r="H44" t="n" s="840">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="833">
+        <v>10211.0</v>
+      </c>
+      <c r="B45" t="n" s="834">
+        <v>9311643.0</v>
+      </c>
+      <c r="C45" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="836">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="838">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n" s="839">
+        <v>5.0</v>
+      </c>
+      <c r="H45" t="n" s="840">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="833">
+        <v>10217.0</v>
+      </c>
+      <c r="B46" t="n" s="834">
+        <v>9805341.0</v>
+      </c>
+      <c r="C46" t="s" s="835">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="836">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s" s="838">
+        <v>32</v>
+      </c>
+      <c r="G46" t="n" s="839">
+        <v>6.0</v>
+      </c>
+      <c r="H46" t="n" s="840">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="842">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="870">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="870">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="866">
+        <v>34</v>
+      </c>
+      <c r="B6" t="n" s="871">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="872">
+        <v>0.6760418552511804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="866">
+        <v>48</v>
+      </c>
+      <c r="B7" t="n" s="871">
+        <v>0.6760418552511804</v>
+      </c>
+      <c r="C7" t="n" s="872">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="876">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="890">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="890">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="886">
+        <v>34</v>
+      </c>
+      <c r="B12" t="e" s="891">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="892">
+        <v>2.051500870232687</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="886">
+        <v>48</v>
+      </c>
+      <c r="B13" t="n" s="891">
+        <v>2.051500870232687</v>
+      </c>
+      <c r="C13" t="e" s="892">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="896">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="910">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="910">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="906">
+        <v>34</v>
+      </c>
+      <c r="B18" t="n" s="911">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="912">
+        <v>0.09546026836672716</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="906">
+        <v>48</v>
+      </c>
+      <c r="B19" t="n" s="911">
+        <v>0.09546026836672716</v>
+      </c>
+      <c r="C19" t="n" s="912">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="916">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="930">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="930">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="930">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="930">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="926">
+        <v>68</v>
+      </c>
+      <c r="B24" t="n" s="931">
+        <v>-0.1568874843444015</v>
+      </c>
+      <c r="C24" t="n" s="932">
+        <v>0.6760418552511804</v>
+      </c>
+      <c r="D24" t="n" s="933">
+        <v>0.9469889998733211</v>
+      </c>
+      <c r="E24" t="n" s="934">
+        <v>0.09546026836672716</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="938">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="952">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s" s="952">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="953">
+        <v>6.0</v>
+      </c>
+      <c r="B29" t="n" s="954">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="953">
+        <v>2.0</v>
+      </c>
+      <c r="B30" t="n" s="954">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="953">
+        <v>1.0</v>
+      </c>
+      <c r="B31" t="n" s="954">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="953">
+        <v>6.0</v>
+      </c>
+      <c r="B32" t="n" s="954">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="953">
+        <v>2.0</v>
+      </c>
+      <c r="B33" t="n" s="954">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="953">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="n" s="954">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="953">
+        <v>5.0</v>
+      </c>
+      <c r="B35" t="n" s="954">
+        <v>0.7357406959794577</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="958">
+        <v>70</v>
+      </c>
+    </row>
     <row r="39">
-      <c r="A39" t="s" s="678">
-        <v>62</v>
+      <c r="A39" t="s" s="972">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="972">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s" s="972">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s" s="972">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s" s="972">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="972">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s" s="972">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s" s="972">
+        <v>48</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="692">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s" s="692">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s" s="692">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s" s="692">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s" s="692">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s" s="692">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s" s="692">
-        <v>34</v>
-      </c>
-      <c r="H40" t="s" s="692">
-        <v>48</v>
+      <c r="A40" t="n" s="973">
+        <v>10171.0</v>
+      </c>
+      <c r="B40" t="n" s="974">
+        <v>698531.0</v>
+      </c>
+      <c r="C40" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="976">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s" s="977">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="978">
+        <v>31</v>
+      </c>
+      <c r="G40" t="n" s="979">
+        <v>6.0</v>
+      </c>
+      <c r="H40" t="n" s="980">
+        <v>0.7357406959794577</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="693">
-        <v>10171.0</v>
-      </c>
-      <c r="B41" t="n" s="694">
-        <v>698531.0</v>
-      </c>
-      <c r="C41" t="s" s="695">
+      <c r="A41" t="n" s="973">
+        <v>10172.0</v>
+      </c>
+      <c r="B41" t="n" s="974">
+        <v>1.0273971E7</v>
+      </c>
+      <c r="C41" t="s" s="975">
         <v>21</v>
       </c>
-      <c r="D41" t="s" s="696">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s" s="697">
+      <c r="D41" t="s" s="976">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s" s="977">
         <v>44</v>
       </c>
-      <c r="F41" t="s" s="698">
+      <c r="F41" t="s" s="978">
         <v>31</v>
       </c>
-      <c r="G41" t="n" s="699">
+      <c r="G41" t="n" s="979">
+        <v>2.0</v>
+      </c>
+      <c r="H41" t="n" s="980">
+        <v>-0.07604771059156659</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="973">
+        <v>10185.0</v>
+      </c>
+      <c r="B42" t="n" s="974">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C42" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="976">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s" s="977">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="978">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="979">
+        <v>1.0</v>
+      </c>
+      <c r="H42" t="n" s="980">
+        <v>-0.8071144506354303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="973">
+        <v>10188.0</v>
+      </c>
+      <c r="B43" t="n" s="974">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C43" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="976">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s" s="977">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="978">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="979">
         <v>6.0</v>
       </c>
-      <c r="H41" t="n" s="700">
-        <v>0.7357406959794577</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="693">
-        <v>10172.0</v>
-      </c>
-      <c r="B42" t="n" s="694">
-        <v>1.0273971E7</v>
-      </c>
-      <c r="C42" t="s" s="695">
+      <c r="H43" t="n" s="980">
+        <v>-0.5710388437252591</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="973">
+        <v>10208.0</v>
+      </c>
+      <c r="B44" t="n" s="974">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C44" t="s" s="975">
         <v>21</v>
       </c>
-      <c r="D42" t="s" s="696">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s" s="697">
+      <c r="D44" t="s" s="976">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s" s="977">
         <v>44</v>
       </c>
-      <c r="F42" t="s" s="698">
+      <c r="F44" t="s" s="978">
+        <v>32</v>
+      </c>
+      <c r="G44" t="n" s="979">
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="n" s="980">
+        <v>-0.3246338035754202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="973">
+        <v>10211.0</v>
+      </c>
+      <c r="B45" t="n" s="974">
+        <v>9311643.0</v>
+      </c>
+      <c r="C45" t="s" s="975">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="976">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="977">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="978">
         <v>31</v>
       </c>
-      <c r="G42" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H42" t="n" s="700">
-        <v>-0.07604771059156659</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="693">
-        <v>10185.0</v>
-      </c>
-      <c r="B43" t="n" s="694">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C43" t="s" s="695">
+      <c r="G45" t="n" s="979">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n" s="980">
+        <v>-1.5892360279087838</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="973">
+        <v>10217.0</v>
+      </c>
+      <c r="B46" t="n" s="974">
+        <v>9805341.0</v>
+      </c>
+      <c r="C46" t="s" s="975">
         <v>21</v>
       </c>
-      <c r="D43" t="s" s="696">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s" s="697">
+      <c r="D46" t="s" s="976">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s" s="977">
         <v>44</v>
       </c>
-      <c r="F43" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G43" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H43" t="n" s="700">
-        <v>-0.8071144506354303</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="693">
-        <v>10188.0</v>
-      </c>
-      <c r="B44" t="n" s="694">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C44" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s" s="696">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G44" t="n" s="699">
-        <v>6.0</v>
-      </c>
-      <c r="H44" t="n" s="700">
-        <v>-0.5710388437252591</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="693">
-        <v>10208.0</v>
-      </c>
-      <c r="B45" t="n" s="694">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C45" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s" s="696">
-        <v>27</v>
-      </c>
-      <c r="E45" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F45" t="s" s="698">
+      <c r="F46" t="s" s="978">
         <v>32</v>
       </c>
-      <c r="G45" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H45" t="n" s="700">
-        <v>-0.3246338035754202</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="693">
-        <v>10211.0</v>
-      </c>
-      <c r="B46" t="n" s="694">
-        <v>9311643.0</v>
-      </c>
-      <c r="C46" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="696">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F46" t="s" s="698">
-        <v>31</v>
-      </c>
-      <c r="G46" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H46" t="n" s="700">
-        <v>-1.5892360279087838</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="693">
-        <v>10216.0</v>
-      </c>
-      <c r="B47" t="n" s="694">
-        <v>1.027672E7</v>
-      </c>
-      <c r="C47" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="696">
-        <v>28</v>
-      </c>
-      <c r="E47" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F47" t="s" s="698">
-        <v>32</v>
-      </c>
-      <c r="G47" t="n" s="699">
-        <v>4.0</v>
-      </c>
-      <c r="H47" t="n" s="700">
-        <v>2.688996118881437</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="693">
-        <v>10217.0</v>
-      </c>
-      <c r="B48" t="n" s="694">
-        <v>9805341.0</v>
-      </c>
-      <c r="C48" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="696">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s" s="697">
-        <v>44</v>
-      </c>
-      <c r="F48" t="s" s="698">
-        <v>32</v>
-      </c>
-      <c r="G48" t="n" s="699">
+      <c r="G46" t="n" s="979">
         <v>5.0</v>
       </c>
-      <c r="H48" t="n" s="700">
+      <c r="H46" t="n" s="980">
         <v>0.7357406959794577</v>
       </c>
     </row>
